--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -30401,9 +30401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31399,7 +31397,7 @@
         <v>-1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D29">
         <f>VLOOKUP(EOMONTH(A29,1), BB!A:C, 2, 1)-VLOOKUP(A29, BB!A:C, 2, 1)</f>
@@ -31423,7 +31421,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -31539,7 +31537,7 @@
         <v>-1</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D33">
         <f>VLOOKUP(EOMONTH(A33,1), BB!A:C, 2, 1)-VLOOKUP(A33, BB!A:C, 2, 1)</f>
@@ -31563,7 +31561,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -32869,7 +32867,7 @@
         <v>-1</v>
       </c>
       <c r="C71">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <f>VLOOKUP(EOMONTH(A71,1), BB!A:C, 2, 1)-VLOOKUP(A71, BB!A:C, 2, 1)</f>
@@ -32893,7 +32891,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -34339,7 +34337,7 @@
         <v>-1</v>
       </c>
       <c r="C113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <f>VLOOKUP(EOMONTH(A113,1), BB!A:C, 2, 1)-VLOOKUP(A113, BB!A:C, 2, 1)</f>
@@ -34363,7 +34361,7 @@
       </c>
       <c r="I113">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -35214,7 +35212,7 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D138">
         <f>VLOOKUP(EOMONTH(A138,1), BB!A:C, 2, 1)-VLOOKUP(A138, BB!A:C, 2, 1)</f>
@@ -35238,7 +35236,7 @@
       </c>
       <c r="I138">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -35249,7 +35247,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <f>VLOOKUP(EOMONTH(A139,1), BB!A:C, 2, 1)-VLOOKUP(A139, BB!A:C, 2, 1)</f>
@@ -35273,7 +35271,7 @@
       </c>
       <c r="I139">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,9 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R611"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="L610" sqref="L610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30387,9 +30384,55 @@
       <c r="E610">
         <v>1</v>
       </c>
+      <c r="F610">
+        <f>VLOOKUP(A610+3+7, BB!$A:$C,2, 0) - VLOOKUP(A610+3, BB!$A:$C,2, 0)</f>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="G610">
+        <f>VLOOKUP(A610+3+7, BB!$A:$C,3, 0) - VLOOKUP(A610+3, BB!$A:$C,3, 0)</f>
+        <v>-0.20299999999999985</v>
+      </c>
+      <c r="H610">
+        <f t="shared" ref="H610" si="68">IF(F610&gt;0, -1, IF(F610&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I610">
+        <f t="shared" ref="I610" si="69">IF(G610&gt;0, -1, IF(G610&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J610">
+        <f t="shared" ref="J610" si="70">IF(H610=B610,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K610">
+        <f t="shared" ref="K610" si="71">IF(H610=C610,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L610">
+        <f t="shared" ref="L610" si="72">IF(I610=D610,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M610">
+        <f t="shared" ref="M610" si="73">IF(I610=E610,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="611" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A611" s="1"/>
+      <c r="A611" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B611">
+        <v>1</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611">
+        <v>1</v>
+      </c>
+      <c r="E611">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30401,7 +30444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35328,10 +35373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3046"/>
+  <dimension ref="A1:C3051"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A3012" workbookViewId="0">
+      <selection activeCell="B3052" sqref="B3052"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -68838,7 +68883,7 @@
       </c>
     </row>
     <row r="3046" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3046" s="7">
+      <c r="A3046" s="6">
         <v>45537</v>
       </c>
       <c r="B3046" s="2">
@@ -68846,6 +68891,61 @@
       </c>
       <c r="C3046" s="2">
         <v>3.9034</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3047" s="6">
+        <v>45538</v>
+      </c>
+      <c r="B3047" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C3047" s="2">
+        <v>3.831</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3048" s="6">
+        <v>45539</v>
+      </c>
+      <c r="B3048" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C3048" s="2">
+        <v>3.7551999999999999</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3049" s="6">
+        <v>45540</v>
+      </c>
+      <c r="B3049" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C3049" s="2">
+        <v>3.7269000000000001</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3050" s="6">
+        <v>45541</v>
+      </c>
+      <c r="B3050" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="C3050" s="2">
+        <v>3.7080000000000002</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3051" s="6">
+        <v>45544</v>
+      </c>
+      <c r="B3051" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C3051" s="2">
+        <v>3.7004000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R611"/>
+  <dimension ref="A1:R612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="L610" sqref="L610"/>
+    <sheetView tabSelected="1" topLeftCell="A591" workbookViewId="0">
+      <selection activeCell="C610" sqref="C610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30433,6 +30433,55 @@
       <c r="E611">
         <v>-1</v>
       </c>
+      <c r="F611">
+        <f>VLOOKUP(A611+3+7, BB!$A:$C,2, 0) - VLOOKUP(A611+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G611">
+        <f>VLOOKUP(A611+3+7, BB!$A:$C,3, 0) - VLOOKUP(A611+3, BB!$A:$C,3, 0)</f>
+        <v>-8.2800000000000207E-2</v>
+      </c>
+      <c r="H611">
+        <f t="shared" ref="H611" si="74">IF(F611&gt;0, -1, IF(F611&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I611">
+        <f t="shared" ref="I611" si="75">IF(G611&gt;0, -1, IF(G611&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J611">
+        <f t="shared" ref="J611" si="76">IF(H611=B611,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K611">
+        <f t="shared" ref="K611" si="77">IF(H611=C611,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L611">
+        <f t="shared" ref="L611" si="78">IF(I611=D611,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M611">
+        <f t="shared" ref="M611" si="79">IF(I611=E611,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B612">
+        <v>1</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612">
+        <v>-1</v>
+      </c>
+      <c r="E612">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -30444,8 +30493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35373,10 +35422,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3051"/>
+  <dimension ref="A1:C3058"/>
   <sheetViews>
-    <sheetView topLeftCell="A3012" workbookViewId="0">
-      <selection activeCell="B3052" sqref="B3052"/>
+    <sheetView topLeftCell="A3037" workbookViewId="0">
+      <selection activeCell="B3060" sqref="B3060"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -68948,6 +68997,83 @@
         <v>3.7004000000000001</v>
       </c>
     </row>
+    <row r="3052" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3052" s="6">
+        <v>45545</v>
+      </c>
+      <c r="B3052" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3052" s="2">
+        <v>3.6423000000000001</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3053" s="6">
+        <v>45546</v>
+      </c>
+      <c r="B3053" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3053" s="2">
+        <v>3.6534</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3054" s="6">
+        <v>45547</v>
+      </c>
+      <c r="B3054" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C3054" s="2">
+        <v>3.6739999999999999</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3055" s="6">
+        <v>45548</v>
+      </c>
+      <c r="B3055" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C3055" s="2">
+        <v>3.6513</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3056" s="6">
+        <v>45551</v>
+      </c>
+      <c r="B3056" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C3056" s="2">
+        <v>3.6175999999999999</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3057" s="6">
+        <v>45552</v>
+      </c>
+      <c r="B3057" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C3057" s="2">
+        <v>3.6456</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3058" s="6">
+        <v>45553</v>
+      </c>
+      <c r="B3058" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C3058" s="2">
+        <v>3.7038000000000002</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,9 +217,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M612"/>
+  <dimension ref="A1:M613"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30461,6 +30458,55 @@
         <v>-1</v>
       </c>
       <c r="E612">
+        <v>-1</v>
+      </c>
+      <c r="F612">
+        <f>VLOOKUP(A612+3+7, BB!$A:$C,2, 0) - VLOOKUP(A612+3, BB!$A:$C,2, 0)</f>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="G612">
+        <f>VLOOKUP(A612+3+7, BB!$A:$C,3, 0) - VLOOKUP(A612+3, BB!$A:$C,3, 0)</f>
+        <v>0.12369999999999992</v>
+      </c>
+      <c r="H612">
+        <f t="shared" ref="H612" si="68">IF(F612&gt;0, -1, IF(F612&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I612">
+        <f t="shared" ref="I612" si="69">IF(G612&gt;0, -1, IF(G612&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J612">
+        <f t="shared" ref="J612" si="70">IF(OR(H612=0, B612=0), "", IF(OR(AND(B612=1,H612=1), AND(B612=-1,H612=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K612">
+        <f t="shared" ref="K612" si="71">IF(OR(H612=0, C612=0), "", IF(OR(AND(C612=1,H612=1), AND(C612=-1,H612=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L612">
+        <f t="shared" ref="L612" si="72">IF(OR(I612=0, D612=0), "", IF(OR(AND(D612=1,I612=1), AND(D612=-1,I612=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M612">
+        <f t="shared" ref="M612" si="73">IF(OR(I612=0, E612=0), "", IF(OR(AND(E612=1,I612=1), AND(E612=-1,I612=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B613">
+        <v>1</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613">
+        <v>-1</v>
+      </c>
+      <c r="E613">
         <v>-1</v>
       </c>
     </row>
@@ -35406,8 +35452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3061"/>
   <sheetViews>
-    <sheetView topLeftCell="A3025" workbookViewId="0">
-      <selection activeCell="A3060" sqref="A3060"/>
+    <sheetView tabSelected="1" topLeftCell="A3025" workbookViewId="0">
+      <selection activeCell="D3046" sqref="D3046"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -68870,216 +68916,224 @@
       </c>
     </row>
     <row r="3042" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3042" s="5">
+      <c r="A3042" s="3">
         <v>45531</v>
       </c>
-      <c r="B3042" s="2">
+      <c r="B3042" s="4">
         <v>0.94</v>
       </c>
-      <c r="C3042" s="2">
+      <c r="C3042" s="4">
         <v>3.8216000000000001</v>
       </c>
     </row>
     <row r="3043" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3043" s="5">
+      <c r="A3043" s="3">
         <v>45532</v>
       </c>
-      <c r="B3043" s="2">
+      <c r="B3043" s="4">
         <v>0.94</v>
       </c>
-      <c r="C3043" s="2">
+      <c r="C3043" s="4">
         <v>3.8349000000000002</v>
       </c>
     </row>
     <row r="3044" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3044" s="5">
+      <c r="A3044" s="3">
         <v>45533</v>
       </c>
-      <c r="B3044" s="2">
+      <c r="B3044" s="4">
         <v>0.94</v>
       </c>
-      <c r="C3044" s="2">
+      <c r="C3044" s="4">
         <v>3.8614999999999999</v>
       </c>
     </row>
     <row r="3045" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3045" s="5">
+      <c r="A3045" s="3">
         <v>45534</v>
       </c>
-      <c r="B3045" s="2">
+      <c r="B3045" s="4">
         <v>0.93</v>
       </c>
-      <c r="C3045" s="2">
+      <c r="C3045" s="4">
         <v>3.9034</v>
       </c>
     </row>
     <row r="3046" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3046" s="5">
+      <c r="A3046" s="3">
         <v>45537</v>
       </c>
-      <c r="B3046" s="2">
+      <c r="B3046" s="4">
         <v>0.93</v>
       </c>
-      <c r="C3046" s="2">
+      <c r="C3046" s="4">
         <v>3.9034</v>
       </c>
     </row>
     <row r="3047" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3047" s="5">
+      <c r="A3047" s="3">
         <v>45538</v>
       </c>
-      <c r="B3047" s="2">
+      <c r="B3047" s="4">
         <v>0.97</v>
       </c>
-      <c r="C3047" s="2">
+      <c r="C3047" s="4">
         <v>3.831</v>
       </c>
     </row>
     <row r="3048" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3048" s="5">
+      <c r="A3048" s="3">
         <v>45539</v>
       </c>
-      <c r="B3048" s="2">
+      <c r="B3048" s="4">
         <v>0.98</v>
       </c>
-      <c r="C3048" s="2">
+      <c r="C3048" s="4">
         <v>3.7551999999999999</v>
       </c>
     </row>
     <row r="3049" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3049" s="5">
+      <c r="A3049" s="3">
         <v>45540</v>
       </c>
-      <c r="B3049" s="2">
+      <c r="B3049" s="4">
         <v>0.97</v>
       </c>
-      <c r="C3049" s="2">
+      <c r="C3049" s="4">
         <v>3.7269000000000001</v>
       </c>
     </row>
     <row r="3050" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3050" s="5">
+      <c r="A3050" s="3">
         <v>45541</v>
       </c>
-      <c r="B3050" s="2">
+      <c r="B3050" s="4">
         <v>0.98</v>
       </c>
-      <c r="C3050" s="2">
+      <c r="C3050" s="4">
         <v>3.7080000000000002</v>
       </c>
     </row>
     <row r="3051" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3051" s="5">
+      <c r="A3051" s="3">
         <v>45544</v>
       </c>
-      <c r="B3051" s="2">
+      <c r="B3051" s="4">
         <v>0.97</v>
       </c>
-      <c r="C3051" s="2">
+      <c r="C3051" s="4">
         <v>3.7004000000000001</v>
       </c>
     </row>
     <row r="3052" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3052" s="5">
+      <c r="A3052" s="3">
         <v>45545</v>
       </c>
-      <c r="B3052" s="2">
+      <c r="B3052" s="4">
         <v>0.99</v>
       </c>
-      <c r="C3052" s="2">
+      <c r="C3052" s="4">
         <v>3.6423000000000001</v>
       </c>
     </row>
     <row r="3053" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3053" s="5">
+      <c r="A3053" s="3">
         <v>45546</v>
       </c>
-      <c r="B3053" s="2">
+      <c r="B3053" s="4">
         <v>0.99</v>
       </c>
-      <c r="C3053" s="2">
+      <c r="C3053" s="4">
         <v>3.6534</v>
       </c>
     </row>
     <row r="3054" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3054" s="5">
+      <c r="A3054" s="3">
         <v>45547</v>
       </c>
-      <c r="B3054" s="2">
+      <c r="B3054" s="4">
         <v>0.97</v>
       </c>
-      <c r="C3054" s="2">
+      <c r="C3054" s="4">
         <v>3.6739999999999999</v>
       </c>
     </row>
     <row r="3055" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3055" s="5">
+      <c r="A3055" s="3">
         <v>45548</v>
       </c>
-      <c r="B3055" s="2">
+      <c r="B3055" s="4">
         <v>0.96</v>
       </c>
-      <c r="C3055" s="2">
+      <c r="C3055" s="4">
         <v>3.6513</v>
       </c>
     </row>
     <row r="3056" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3056" s="5">
+      <c r="A3056" s="3">
         <v>45551</v>
       </c>
-      <c r="B3056" s="2">
+      <c r="B3056" s="4">
         <v>0.96</v>
       </c>
-      <c r="C3056" s="2">
+      <c r="C3056" s="4">
         <v>3.6175999999999999</v>
       </c>
     </row>
     <row r="3057" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3057" s="5">
+      <c r="A3057" s="3">
         <v>45552</v>
       </c>
-      <c r="B3057" s="2">
+      <c r="B3057" s="4">
         <v>0.94</v>
       </c>
-      <c r="C3057" s="2">
+      <c r="C3057" s="4">
         <v>3.6456</v>
       </c>
     </row>
     <row r="3058" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3058" s="5">
+      <c r="A3058" s="3">
         <v>45553</v>
       </c>
-      <c r="B3058" s="2">
+      <c r="B3058" s="4">
         <v>0.93</v>
       </c>
-      <c r="C3058" s="2">
+      <c r="C3058" s="4">
         <v>3.7038000000000002</v>
       </c>
     </row>
     <row r="3059" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3059" s="5">
+      <c r="A3059" s="3">
         <v>45554</v>
       </c>
-      <c r="B3059" s="2">
+      <c r="B3059" s="4">
         <v>0.91</v>
       </c>
-      <c r="C3059" s="2">
+      <c r="C3059" s="4">
         <v>3.7130999999999998</v>
       </c>
     </row>
     <row r="3060" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3060" s="5">
+      <c r="A3060" s="3">
         <v>45555</v>
       </c>
-      <c r="B3060" s="2">
+      <c r="B3060" s="4">
         <v>0.91</v>
       </c>
-      <c r="C3060" s="2">
+      <c r="C3060" s="4">
         <v>3.7412999999999998</v>
       </c>
     </row>
     <row r="3061" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3061" s="5"/>
+      <c r="A3061" s="3">
+        <v>45558</v>
+      </c>
+      <c r="B3061" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="C3061" s="4">
+        <v>3.7412999999999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M613"/>
+  <dimension ref="A1:M615"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="A575" workbookViewId="0">
+      <selection activeCell="A615" sqref="A615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30462,11 +30462,11 @@
       </c>
       <c r="F612">
         <f>VLOOKUP(A612+3+7, BB!$A:$C,2, 0) - VLOOKUP(A612+3, BB!$A:$C,2, 0)</f>
-        <v>-4.9999999999999933E-2</v>
+        <v>-5.9999999999999942E-2</v>
       </c>
       <c r="G612">
         <f>VLOOKUP(A612+3+7, BB!$A:$C,3, 0) - VLOOKUP(A612+3, BB!$A:$C,3, 0)</f>
-        <v>0.12369999999999992</v>
+        <v>0.13129999999999997</v>
       </c>
       <c r="H612">
         <f t="shared" ref="H612" si="68">IF(F612&gt;0, -1, IF(F612&lt;0, 1, 0))</f>
@@ -30507,6 +30507,104 @@
         <v>-1</v>
       </c>
       <c r="E613">
+        <v>-1</v>
+      </c>
+      <c r="F613">
+        <f>VLOOKUP(A613+3+7, BB!$A:$C,2, 0) - VLOOKUP(A613+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G613">
+        <f>VLOOKUP(A613+3+7, BB!$A:$C,3, 0) - VLOOKUP(A613+3, BB!$A:$C,3, 0)</f>
+        <v>3.2000000000000028E-2</v>
+      </c>
+      <c r="H613">
+        <f t="shared" ref="H613:H614" si="74">IF(F613&gt;0, -1, IF(F613&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I613">
+        <f t="shared" ref="I613:I614" si="75">IF(G613&gt;0, -1, IF(G613&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J613">
+        <f t="shared" ref="J613:J614" si="76">IF(OR(H613=0, B613=0), "", IF(OR(AND(B613=1,H613=1), AND(B613=-1,H613=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K613">
+        <f t="shared" ref="K613:K614" si="77">IF(OR(H613=0, C613=0), "", IF(OR(AND(C613=1,H613=1), AND(C613=-1,H613=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L613">
+        <f t="shared" ref="L613:L614" si="78">IF(OR(I613=0, D613=0), "", IF(OR(AND(D613=1,I613=1), AND(D613=-1,I613=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M613">
+        <f t="shared" ref="M613:M614" si="79">IF(OR(I613=0, E613=0), "", IF(OR(AND(E613=1,I613=1), AND(E613=-1,I613=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B614">
+        <v>1</v>
+      </c>
+      <c r="C614">
+        <v>1</v>
+      </c>
+      <c r="D614">
+        <v>-1</v>
+      </c>
+      <c r="E614">
+        <v>-1</v>
+      </c>
+      <c r="F614">
+        <f>VLOOKUP(A614+3+7, BB!$A:$C,2, 0) - VLOOKUP(A614+3, BB!$A:$C,2, 0)</f>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="G614">
+        <f>VLOOKUP(A614+3+7, BB!$A:$C,3, 0) - VLOOKUP(A614+3, BB!$A:$C,3, 0)</f>
+        <v>0.18630000000000013</v>
+      </c>
+      <c r="H614">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="I614">
+        <f t="shared" si="75"/>
+        <v>-1</v>
+      </c>
+      <c r="J614">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="K614">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="L614">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="M614">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B615">
+        <v>-1</v>
+      </c>
+      <c r="C615">
+        <v>-1</v>
+      </c>
+      <c r="D615">
+        <v>-1</v>
+      </c>
+      <c r="E615">
         <v>-1</v>
       </c>
     </row>
@@ -30519,10 +30617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35441,6 +35539,41 @@
       <c r="C141">
         <v>1</v>
       </c>
+      <c r="D141">
+        <f>VLOOKUP(EOMONTH(A141,1), BB!A:C, 2, 1)-VLOOKUP(A141, BB!A:C, 2, 1)</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="E141">
+        <f>VLOOKUP(EOMONTH(A141,1), BB!A:C, 3, 1)-VLOOKUP(A141, BB!A:C, 3, 1)</f>
+        <v>-0.12250000000000005</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ref="F141" si="12">IF(D141&gt;0, -1, IF(D141&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f t="shared" ref="G141" si="13">IF(E141&gt;0, -1, IF(E141&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <f t="shared" ref="H141" si="14">IF(B141=F141,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <f t="shared" ref="I141" si="15">IF(C141=G141,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -35450,10 +35583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3061"/>
+  <dimension ref="A1:C3071"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3025" workbookViewId="0">
-      <selection activeCell="D3046" sqref="D3046"/>
+    <sheetView topLeftCell="A3036" workbookViewId="0">
+      <selection activeCell="A3071" sqref="A3071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -69129,10 +69262,120 @@
         <v>45558</v>
       </c>
       <c r="B3061" s="4">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="C3061" s="4">
-        <v>3.7412999999999998</v>
+        <v>3.7488999999999999</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3062" s="3">
+        <v>45559</v>
+      </c>
+      <c r="B3062" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C3062" s="4">
+        <v>3.7280000000000002</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3063" s="3">
+        <v>45560</v>
+      </c>
+      <c r="B3063" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C3063" s="4">
+        <v>3.7848999999999999</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3064" s="3">
+        <v>45561</v>
+      </c>
+      <c r="B3064" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C3064" s="4">
+        <v>3.7963</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3065" s="3">
+        <v>45562</v>
+      </c>
+      <c r="B3065" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C3065" s="4">
+        <v>3.7505999999999999</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3066" s="3">
+        <v>45565</v>
+      </c>
+      <c r="B3066" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="C3066" s="4">
+        <v>3.7808999999999999</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3067" s="3">
+        <v>45566</v>
+      </c>
+      <c r="B3067" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C3067" s="4">
+        <v>3.7315</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3068" s="3">
+        <v>45567</v>
+      </c>
+      <c r="B3068" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C3068" s="4">
+        <v>3.7808999999999999</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3069" s="3">
+        <v>45568</v>
+      </c>
+      <c r="B3069" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="C3069" s="4">
+        <v>3.8458000000000001</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3070" s="3">
+        <v>45569</v>
+      </c>
+      <c r="B3070" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C3070" s="4">
+        <v>3.9672000000000001</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3071" s="3">
+        <v>45572</v>
+      </c>
+      <c r="B3071" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="C3071" s="4">
+        <v>3.9672000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O615"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="D615" sqref="D615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34949,8 +34949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41373,11 +41373,11 @@
         <v>0</v>
       </c>
       <c r="L131">
-        <f t="shared" ref="L131:L142" si="16">IF(D131=H131,1,0)</f>
+        <f t="shared" ref="L131:L141" si="16">IF(D131=H131,1,0)</f>
         <v>1</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M142" si="17">IF(E131=I131,1,0)</f>
+        <f t="shared" ref="M131:M141" si="17">IF(E131=I131,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -41882,10 +41882,10 @@
         <v>-1</v>
       </c>
       <c r="D142">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O615"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+    <sheetView topLeftCell="A573" workbookViewId="0">
       <selection activeCell="D615" sqref="D615"/>
     </sheetView>
   </sheetViews>
@@ -34949,8 +34949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="N141" sqref="N141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -262,27 +262,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|5039221738950043808</stp>
-        <tr r="C2" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|337092107080015717</stp>
-        <tr r="A2" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -550,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="J616" sqref="J616"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="F616" sqref="F616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32966,7 +32945,7 @@
         <v/>
       </c>
       <c r="M579">
-        <f t="shared" ref="M579:M615" ca="1" si="67">IF(OR(I579=0, D579=0), "", IF(OR(AND(D579=1,I579=1), AND(D579=-1,I579=-1)), 1, 0))</f>
+        <f t="shared" ref="M579:M614" ca="1" si="67">IF(OR(I579=0, D579=0), "", IF(OR(AND(D579=1,I579=1), AND(D579=-1,I579=-1)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="N579">
@@ -34675,7 +34654,7 @@
         <v>-1</v>
       </c>
       <c r="F610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G610">
         <f ca="1">VLOOKUP(A610+3+7, BB!$A:$C,2, 0) - VLOOKUP(A610+3, BB!$A:$C,2, 0)</f>
@@ -34709,9 +34688,9 @@
         <f t="shared" ca="1" si="68"/>
         <v>0</v>
       </c>
-      <c r="O610">
+      <c r="O610" t="str">
         <f t="shared" ca="1" si="69"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="611" spans="1:15" x14ac:dyDescent="0.2">
@@ -34728,10 +34707,10 @@
         <v>1</v>
       </c>
       <c r="E611">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F611">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G611">
         <f ca="1">VLOOKUP(A611+3+7, BB!$A:$C,2, 0) - VLOOKUP(A611+3, BB!$A:$C,2, 0)</f>
@@ -34763,11 +34742,11 @@
       </c>
       <c r="N611">
         <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O611">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:15" x14ac:dyDescent="0.2">
@@ -34843,7 +34822,7 @@
         <v>-1</v>
       </c>
       <c r="F613">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G613">
         <f ca="1">VLOOKUP(A613+3+7, BB!$A:$C,2, 0) - VLOOKUP(A613+3, BB!$A:$C,2, 0)</f>
@@ -34877,9 +34856,9 @@
         <f t="shared" ref="N613:N614" ca="1" si="88">IF(OR(J613=0, E613=0), "", IF(OR(AND(E613=1,J613=1), AND(E613=-1,J613=-1)), 1, 0))</f>
         <v>1</v>
       </c>
-      <c r="O613">
+      <c r="O613" t="str">
         <f t="shared" ref="O613:O614" ca="1" si="89">IF(OR(J613=0, F613=0), "", IF(OR(AND(F613=1,J613=1), AND(F613=-1,J613=-1)), 1, 0))</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.2">
@@ -34946,7 +34925,7 @@
         <v>-1</v>
       </c>
       <c r="C615">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D615">
         <v>-1</v>
@@ -34955,7 +34934,7 @@
         <v>-1</v>
       </c>
       <c r="F615">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G615">
         <f ca="1">VLOOKUP(A615+3+7, BB!$A:$C,2, 0) - VLOOKUP(A615+3, BB!$A:$C,2, 0)</f>
@@ -34977,9 +34956,9 @@
         <f t="shared" ref="K615" ca="1" si="92">IF(OR(I615=0, B615=0), "", IF(OR(AND(B615=1,I615=1), AND(B615=-1,I615=-1)), 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="L615">
+      <c r="L615" t="str">
         <f t="shared" ref="L615" ca="1" si="93">IF(OR(I615=0, C615=0), "", IF(OR(AND(C615=1,I615=1), AND(C615=-1,I615=-1)), 1, 0))</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="M615">
         <f t="shared" ref="M615" ca="1" si="94">IF(OR(I615=0, D615=0), "", IF(OR(AND(D615=1,I615=1), AND(D615=-1,I615=-1)), 1, 0))</f>
@@ -34989,9 +34968,9 @@
         <f t="shared" ref="N615" ca="1" si="95">IF(OR(J615=0, E615=0), "", IF(OR(AND(E615=1,J615=1), AND(E615=-1,J615=-1)), 1, 0))</f>
         <v>1</v>
       </c>
-      <c r="O615">
+      <c r="O615" t="str">
         <f t="shared" ref="O615" ca="1" si="96">IF(OR(J615=0, F615=0), "", IF(OR(AND(F615=1,J615=1), AND(F615=-1,J615=-1)), 1, 0))</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.2">
@@ -34999,6 +34978,21 @@
         <f>A615+7</f>
         <v>45576</v>
       </c>
+      <c r="B616">
+        <v>0</v>
+      </c>
+      <c r="C616">
+        <v>0</v>
+      </c>
+      <c r="D616">
+        <v>-1</v>
+      </c>
+      <c r="E616">
+        <v>-1</v>
+      </c>
+      <c r="F616">
+        <v>1</v>
+      </c>
       <c r="G616">
         <f ca="1">VLOOKUP(A616+3+7, BB!$A:$C,2, 0) - VLOOKUP(A616+3, BB!$A:$C,2, 0)</f>
         <v>0</v>
@@ -35006,12 +35000,55 @@
       <c r="H616">
         <f ca="1">VLOOKUP(A616+3+7, BB!$A:$C,3, 0) - VLOOKUP(A616+3, BB!$A:$C,3, 0)</f>
         <v>-1.7500000000000071E-2</v>
+      </c>
+      <c r="I616">
+        <f t="shared" ref="I616" ca="1" si="97">IF(G616&gt;0, -1, IF(G616&lt;0, 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="J616">
+        <f t="shared" ref="J616" ca="1" si="98">IF(H616&gt;0, -1, IF(H616&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K616" t="str">
+        <f t="shared" ref="K616" ca="1" si="99">IF(OR(I616=0, B616=0), "", IF(OR(AND(B616=1,I616=1), AND(B616=-1,I616=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="L616" t="str">
+        <f t="shared" ref="L616" ca="1" si="100">IF(OR(I616=0, C616=0), "", IF(OR(AND(C616=1,I616=1), AND(C616=-1,I616=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="M616" t="str">
+        <f t="shared" ref="M616" ca="1" si="101">IF(OR(I616=0, D616=0), "", IF(OR(AND(D616=1,I616=1), AND(D616=-1,I616=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="N616">
+        <f t="shared" ref="N616" ca="1" si="102">IF(OR(J616=0, E616=0), "", IF(OR(AND(E616=1,J616=1), AND(E616=-1,J616=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="O616">
+        <f t="shared" ref="O616" ca="1" si="103">IF(OR(J616=0, F616=0), "", IF(OR(AND(F616=1,J616=1), AND(F616=-1,J616=-1)), 1, 0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <f>A616+7</f>
         <v>45583</v>
+      </c>
+      <c r="B617">
+        <v>-1</v>
+      </c>
+      <c r="C617">
+        <v>0</v>
+      </c>
+      <c r="D617">
+        <v>-1</v>
+      </c>
+      <c r="E617">
+        <v>-1</v>
+      </c>
+      <c r="F617">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -35025,8 +35062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="H143" sqref="H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -41976,7 +42013,7 @@
   <dimension ref="A1:C3080"/>
   <sheetViews>
     <sheetView topLeftCell="A3052" workbookViewId="0">
-      <selection activeCell="A3080" sqref="A3080"/>
+      <selection activeCell="B3079" sqref="B3079"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -41999,16 +42036,16 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="3" t="e">
         <f ca="1">_xll.BDH(B1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","cols=2;rows=3078")</f>
-        <v>41276</v>
+        <v>#NAME?</v>
       </c>
       <c r="B2" s="4">
         <v>1.38</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="4" t="e">
         <f ca="1">_xll.BDH(C1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","DTS=H","cols=1;rows=3078")</f>
-        <v>1.8371</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O617"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
-      <selection activeCell="F616" sqref="F616"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="I616" sqref="I616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -519,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M623"/>
+  <dimension ref="A1:M630"/>
   <sheetViews>
-    <sheetView topLeftCell="A586" workbookViewId="0">
-      <selection activeCell="F626" sqref="F626"/>
+    <sheetView topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="C628" sqref="C628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30861,7 +30861,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A623" si="98">A619+7</f>
+        <f t="shared" ref="A620:A629" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -31026,6 +31026,274 @@
       <c r="E623">
         <v>1</v>
       </c>
+      <c r="F623">
+        <f ca="1">VLOOKUP(A623+3+7, BB!$A:$C,2, 0) - VLOOKUP(A623+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G623">
+        <f ca="1">VLOOKUP(A623+3+7, BB!$A:$C,3, 0) - VLOOKUP(A623+3, BB!$A:$C,3, 0)</f>
+        <v>1.1499999999999844E-2</v>
+      </c>
+      <c r="H623">
+        <f t="shared" ref="H623:H628" ca="1" si="99">IF(F623&gt;0, -1, IF(F623&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I623">
+        <f t="shared" ref="I623:I628" ca="1" si="100">IF(G623&gt;0, -1, IF(G623&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J623">
+        <f t="shared" ref="J623:J628" ca="1" si="101">IF(OR(H623=0, B623=0), "", IF(OR(AND(B623=1,H623=1), AND(B623=-1,H623=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="K623">
+        <f t="shared" ref="K623:K628" ca="1" si="102">IF(OR(H623=0, C623=0), "", IF(OR(AND(C623=1,H623=1), AND(C623=-1,H623=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L623">
+        <f t="shared" ref="L623:L628" ca="1" si="103">IF(OR(I623=0, D623=0), "", IF(OR(AND(D623=1,I623=1), AND(D623=-1,I623=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M623">
+        <f t="shared" ref="M623:M628" ca="1" si="104">IF(OR(I623=0, E623=0), "", IF(OR(AND(E623=1,I623=1), AND(E623=-1,I623=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <f t="shared" si="98"/>
+        <v>45632</v>
+      </c>
+      <c r="B624">
+        <v>-1</v>
+      </c>
+      <c r="C624">
+        <v>0</v>
+      </c>
+      <c r="D624">
+        <v>1</v>
+      </c>
+      <c r="E624">
+        <v>0</v>
+      </c>
+      <c r="F624">
+        <f ca="1">VLOOKUP(A624+3+7, BB!$A:$C,2, 0) - VLOOKUP(A624+3, BB!$A:$C,2, 0)</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G624">
+        <f ca="1">VLOOKUP(A624+3+7, BB!$A:$C,3, 0) - VLOOKUP(A624+3, BB!$A:$C,3, 0)</f>
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="H624">
+        <f t="shared" ca="1" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="I624">
+        <f t="shared" ca="1" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="J624">
+        <f t="shared" ca="1" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="K624" t="str">
+        <f t="shared" ca="1" si="102"/>
+        <v/>
+      </c>
+      <c r="L624">
+        <f t="shared" ca="1" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="M624" t="str">
+        <f t="shared" ca="1" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <f t="shared" si="98"/>
+        <v>45639</v>
+      </c>
+      <c r="B625">
+        <v>-1</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
+      </c>
+      <c r="D625">
+        <v>1</v>
+      </c>
+      <c r="E625">
+        <v>1</v>
+      </c>
+      <c r="F625">
+        <f ca="1">VLOOKUP(A625+3+7, BB!$A:$C,2, 0) - VLOOKUP(A625+3, BB!$A:$C,2, 0)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="G625">
+        <f ca="1">VLOOKUP(A625+3+7, BB!$A:$C,3, 0) - VLOOKUP(A625+3, BB!$A:$C,3, 0)</f>
+        <v>0.18979999999999997</v>
+      </c>
+      <c r="H625">
+        <f t="shared" ca="1" si="99"/>
+        <v>-1</v>
+      </c>
+      <c r="I625">
+        <f t="shared" ca="1" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="J625">
+        <f t="shared" ca="1" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="K625" t="str">
+        <f t="shared" ca="1" si="102"/>
+        <v/>
+      </c>
+      <c r="L625">
+        <f t="shared" ca="1" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="M625">
+        <f t="shared" ca="1" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <f t="shared" si="98"/>
+        <v>45646</v>
+      </c>
+      <c r="B626">
+        <v>1</v>
+      </c>
+      <c r="C626">
+        <v>0</v>
+      </c>
+      <c r="D626">
+        <v>1</v>
+      </c>
+      <c r="E626">
+        <v>1</v>
+      </c>
+      <c r="F626">
+        <f ca="1">VLOOKUP(A626+3+7, BB!$A:$C,2, 0) - VLOOKUP(A626+3, BB!$A:$C,2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G626">
+        <f ca="1">VLOOKUP(A626+3+7, BB!$A:$C,3, 0) - VLOOKUP(A626+3, BB!$A:$C,3, 0)</f>
+        <v>-5.3799999999999848E-2</v>
+      </c>
+      <c r="H626">
+        <f t="shared" ca="1" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="I626">
+        <f t="shared" ca="1" si="100"/>
+        <v>1</v>
+      </c>
+      <c r="J626" t="str">
+        <f t="shared" ca="1" si="101"/>
+        <v/>
+      </c>
+      <c r="K626" t="str">
+        <f t="shared" ca="1" si="102"/>
+        <v/>
+      </c>
+      <c r="L626">
+        <f t="shared" ca="1" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="M626">
+        <f t="shared" ca="1" si="104"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <f t="shared" si="98"/>
+        <v>45653</v>
+      </c>
+      <c r="B627">
+        <v>1</v>
+      </c>
+      <c r="C627">
+        <v>0</v>
+      </c>
+      <c r="D627">
+        <v>1</v>
+      </c>
+      <c r="E627">
+        <v>1</v>
+      </c>
+      <c r="F627">
+        <f ca="1">VLOOKUP(A627+3+7, BB!$A:$C,2, 0) - VLOOKUP(A627+3, BB!$A:$C,2, 0)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G627">
+        <f ca="1">VLOOKUP(A627+3+7, BB!$A:$C,3, 0) - VLOOKUP(A627+3, BB!$A:$C,3, 0)</f>
+        <v>6.4799999999999969E-2</v>
+      </c>
+      <c r="H627">
+        <f t="shared" ca="1" si="99"/>
+        <v>-1</v>
+      </c>
+      <c r="I627">
+        <f t="shared" ca="1" si="100"/>
+        <v>-1</v>
+      </c>
+      <c r="J627">
+        <f t="shared" ca="1" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="K627" t="str">
+        <f t="shared" ca="1" si="102"/>
+        <v/>
+      </c>
+      <c r="L627">
+        <f t="shared" ca="1" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="M627">
+        <f t="shared" ca="1" si="104"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <f t="shared" si="98"/>
+        <v>45660</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+      <c r="C628">
+        <v>0</v>
+      </c>
+      <c r="D628">
+        <v>1</v>
+      </c>
+      <c r="E628">
+        <v>0</v>
+      </c>
+      <c r="K628" t="str">
+        <f t="shared" si="102"/>
+        <v/>
+      </c>
+      <c r="L628" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="M628" t="str">
+        <f t="shared" si="104"/>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A629" s="1"/>
+    </row>
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A630" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31036,10 +31304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38074,6 +38342,55 @@
       <c r="E144">
         <v>1</v>
       </c>
+      <c r="F144">
+        <f>VLOOKUP(EOMONTH(A144,1), BB!A:C, 2, 1)-VLOOKUP(A144, BB!A:C, 2, 1)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G144">
+        <f>VLOOKUP(EOMONTH(A144,1), BB!A:C, 3, 1)-VLOOKUP(A144, BB!A:C, 3, 1)</f>
+        <v>0.40050000000000008</v>
+      </c>
+      <c r="H144">
+        <f t="shared" ref="H144" si="34">IF(F144&gt;0, -1, IF(F144&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ref="I144" si="35">IF(G144&gt;0, -1, IF(G144&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" ref="J144" si="36">IF(B144=H144,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <f t="shared" ref="K144" si="37">IF(C144=I144,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <f t="shared" ref="L144" si="38">IF(D144=H144,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <f t="shared" ref="M144" si="39">IF(E144=I144,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -38084,10 +38401,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3111"/>
+  <dimension ref="A1:C3136"/>
   <sheetViews>
-    <sheetView topLeftCell="A3070" workbookViewId="0">
-      <selection activeCell="C3097" sqref="C3097"/>
+    <sheetView topLeftCell="A3046" workbookViewId="0">
+      <selection activeCell="C3088" sqref="C3088"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -72321,6 +72638,281 @@
         <v>4.2244999999999999</v>
       </c>
     </row>
+    <row r="3112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3112" s="5">
+        <v>45630</v>
+      </c>
+      <c r="B3112" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3112" s="2">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3113" s="5">
+        <v>45631</v>
+      </c>
+      <c r="B3113" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3113" s="2">
+        <v>4.1760999999999999</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3114" s="5">
+        <v>45632</v>
+      </c>
+      <c r="B3114" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3114" s="2">
+        <v>4.1528999999999998</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3115" s="5">
+        <v>45635</v>
+      </c>
+      <c r="B3115" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3115" s="2">
+        <v>4.2012</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3116" s="5">
+        <v>45636</v>
+      </c>
+      <c r="B3116" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3116" s="2">
+        <v>4.2263000000000002</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3117" s="5">
+        <v>45637</v>
+      </c>
+      <c r="B3117" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3117" s="2">
+        <v>4.2710999999999997</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3118" s="5">
+        <v>45638</v>
+      </c>
+      <c r="B3118" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3118" s="2">
+        <v>4.3277999999999999</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3119" s="5">
+        <v>45639</v>
+      </c>
+      <c r="B3119" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3119" s="2">
+        <v>4.3967000000000001</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3120" s="5">
+        <v>45642</v>
+      </c>
+      <c r="B3120" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3120" s="2">
+        <v>4.3967000000000001</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3121" s="5">
+        <v>45643</v>
+      </c>
+      <c r="B3121" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3121" s="2">
+        <v>4.3986999999999998</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3122" s="5">
+        <v>45644</v>
+      </c>
+      <c r="B3122" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3122" s="2">
+        <v>4.5140000000000002</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3123" s="5">
+        <v>45645</v>
+      </c>
+      <c r="B3123" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3123" s="2">
+        <v>4.5621</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3124" s="5">
+        <v>45646</v>
+      </c>
+      <c r="B3124" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3124" s="2">
+        <v>4.5221999999999998</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3125" s="5">
+        <v>45649</v>
+      </c>
+      <c r="B3125" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3125" s="2">
+        <v>4.5865</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3126" s="5">
+        <v>45650</v>
+      </c>
+      <c r="B3126" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3126" s="2">
+        <v>4.5887000000000002</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3127" s="5">
+        <v>45651</v>
+      </c>
+      <c r="B3127" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3127" s="2">
+        <v>4.5887000000000002</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3128" s="5">
+        <v>45652</v>
+      </c>
+      <c r="B3128" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3128" s="2">
+        <v>4.5827</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3129" s="5">
+        <v>45653</v>
+      </c>
+      <c r="B3129" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3129" s="2">
+        <v>4.6253000000000002</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3130" s="5">
+        <v>45656</v>
+      </c>
+      <c r="B3130" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3130" s="2">
+        <v>4.5327000000000002</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3131" s="5">
+        <v>45657</v>
+      </c>
+      <c r="B3131" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3131" s="2">
+        <v>4.569</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3132" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B3132" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3132" s="2">
+        <v>4.569</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3133" s="5">
+        <v>45659</v>
+      </c>
+      <c r="B3133" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3133" s="2">
+        <v>4.5590000000000002</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3134" s="5">
+        <v>45660</v>
+      </c>
+      <c r="B3134" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3134" s="2">
+        <v>4.5975000000000001</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3135" s="5">
+        <v>45662</v>
+      </c>
+      <c r="B3135" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3135" s="2">
+        <v>4.5975000000000001</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3136" s="5">
+        <v>45663</v>
+      </c>
+      <c r="B3136" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3136" s="2">
+        <v>4.5975000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,6 +236,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,9 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M630"/>
   <sheetViews>
-    <sheetView topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="C628" sqref="C628"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -31035,15 +31036,15 @@
         <v>1.1499999999999844E-2</v>
       </c>
       <c r="H623">
-        <f t="shared" ref="H623:H628" ca="1" si="99">IF(F623&gt;0, -1, IF(F623&lt;0, 1, 0))</f>
+        <f t="shared" ref="H623:H627" ca="1" si="99">IF(F623&gt;0, -1, IF(F623&lt;0, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="I623">
-        <f t="shared" ref="I623:I628" ca="1" si="100">IF(G623&gt;0, -1, IF(G623&lt;0, 1, 0))</f>
+        <f t="shared" ref="I623:I627" ca="1" si="100">IF(G623&gt;0, -1, IF(G623&lt;0, 1, 0))</f>
         <v>-1</v>
       </c>
       <c r="J623">
-        <f t="shared" ref="J623:J628" ca="1" si="101">IF(OR(H623=0, B623=0), "", IF(OR(AND(B623=1,H623=1), AND(B623=-1,H623=-1)), 1, 0))</f>
+        <f t="shared" ref="J623:J627" ca="1" si="101">IF(OR(H623=0, B623=0), "", IF(OR(AND(B623=1,H623=1), AND(B623=-1,H623=-1)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="K623">
@@ -31228,11 +31229,11 @@
       </c>
       <c r="F627">
         <f ca="1">VLOOKUP(A627+3+7, BB!$A:$C,2, 0) - VLOOKUP(A627+3, BB!$A:$C,2, 0)</f>
-        <v>2.0000000000000018E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="G627">
         <f ca="1">VLOOKUP(A627+3+7, BB!$A:$C,3, 0) - VLOOKUP(A627+3, BB!$A:$C,3, 0)</f>
-        <v>6.4799999999999969E-2</v>
+        <v>9.729999999999972E-2</v>
       </c>
       <c r="H627">
         <f t="shared" ca="1" si="99"/>
@@ -31268,7 +31269,7 @@
         <v>1</v>
       </c>
       <c r="C628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D628">
         <v>1</v>
@@ -31276,21 +31277,56 @@
       <c r="E628">
         <v>0</v>
       </c>
-      <c r="K628" t="str">
-        <f t="shared" si="102"/>
+      <c r="F628">
+        <f ca="1">VLOOKUP(A628+3+7, BB!$A:$C,2, 0) - VLOOKUP(A628+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G628">
+        <f ca="1">VLOOKUP(A628+3+7, BB!$A:$C,3, 0) - VLOOKUP(A628+3, BB!$A:$C,3, 0)</f>
+        <v>0.12919999999999998</v>
+      </c>
+      <c r="H628">
+        <f t="shared" ref="H628" ca="1" si="105">IF(F628&gt;0, -1, IF(F628&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I628">
+        <f t="shared" ref="I628" ca="1" si="106">IF(G628&gt;0, -1, IF(G628&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J628">
+        <f t="shared" ref="J628" ca="1" si="107">IF(OR(H628=0, B628=0), "", IF(OR(AND(B628=1,H628=1), AND(B628=-1,H628=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K628">
+        <f t="shared" ref="K628" ca="1" si="108">IF(OR(H628=0, C628=0), "", IF(OR(AND(C628=1,H628=1), AND(C628=-1,H628=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L628">
+        <f t="shared" ref="L628" ca="1" si="109">IF(OR(I628=0, D628=0), "", IF(OR(AND(D628=1,I628=1), AND(D628=-1,I628=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M628" t="str">
+        <f t="shared" ref="M628" ca="1" si="110">IF(OR(I628=0, E628=0), "", IF(OR(AND(E628=1,I628=1), AND(E628=-1,I628=-1)), 1, 0))</f>
         <v/>
       </c>
-      <c r="L628" t="str">
-        <f t="shared" si="103"/>
-        <v/>
-      </c>
-      <c r="M628" t="str">
-        <f t="shared" si="104"/>
-        <v/>
-      </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A629" s="1"/>
+      <c r="A629" s="1">
+        <f t="shared" si="98"/>
+        <v>45667</v>
+      </c>
+      <c r="B629">
+        <v>1</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629">
+        <v>1</v>
+      </c>
+      <c r="E629">
+        <v>0</v>
+      </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630" s="1"/>
@@ -31306,8 +31342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38401,10 +38437,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3136"/>
+  <dimension ref="A1:C3141"/>
   <sheetViews>
-    <sheetView topLeftCell="A3046" workbookViewId="0">
-      <selection activeCell="C3088" sqref="C3088"/>
+    <sheetView topLeftCell="A3096" workbookViewId="0">
+      <selection activeCell="A3140" sqref="A3140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -72893,24 +72929,79 @@
     </row>
     <row r="3135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3135" s="5">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="B3135" s="2">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="C3135" s="2">
-        <v>4.5975000000000001</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="3136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3136" s="5">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B3136" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3136" s="2">
+        <v>4.6849999999999996</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3137" s="5">
+        <v>45665</v>
+      </c>
+      <c r="B3137" s="2">
         <v>0.8</v>
       </c>
-      <c r="C3136" s="2">
-        <v>4.5975000000000001</v>
+      <c r="C3137" s="2">
+        <v>4.6891999999999996</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3138" s="5">
+        <v>45666</v>
+      </c>
+      <c r="B3138" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3138" s="2">
+        <v>4.6893000000000002</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3139" s="5">
+        <v>45667</v>
+      </c>
+      <c r="B3139" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3139" s="2">
+        <v>4.7591999999999999</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3140" s="6">
+        <v>45670</v>
+      </c>
+      <c r="B3140" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3140" s="2">
+        <v>4.7591999999999999</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3141" s="6">
+        <v>45671</v>
+      </c>
+      <c r="B3141" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3141" s="2">
+        <v>4.7591999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -522,9 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M630"/>
+  <dimension ref="A1:M635"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
+      <selection activeCell="H631" sqref="H631"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30862,7 +30864,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A629" si="98">A619+7</f>
+        <f t="shared" ref="A620:A635" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -31048,15 +31050,15 @@
         <v>0</v>
       </c>
       <c r="K623">
-        <f t="shared" ref="K623:K628" ca="1" si="102">IF(OR(H623=0, C623=0), "", IF(OR(AND(C623=1,H623=1), AND(C623=-1,H623=-1)), 1, 0))</f>
+        <f t="shared" ref="K623:K627" ca="1" si="102">IF(OR(H623=0, C623=0), "", IF(OR(AND(C623=1,H623=1), AND(C623=-1,H623=-1)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="L623">
-        <f t="shared" ref="L623:L628" ca="1" si="103">IF(OR(I623=0, D623=0), "", IF(OR(AND(D623=1,I623=1), AND(D623=-1,I623=-1)), 1, 0))</f>
+        <f t="shared" ref="L623:L627" ca="1" si="103">IF(OR(I623=0, D623=0), "", IF(OR(AND(D623=1,I623=1), AND(D623=-1,I623=-1)), 1, 0))</f>
         <v>0</v>
       </c>
       <c r="M623">
-        <f t="shared" ref="M623:M628" ca="1" si="104">IF(OR(I623=0, E623=0), "", IF(OR(AND(E623=1,I623=1), AND(E623=-1,I623=-1)), 1, 0))</f>
+        <f t="shared" ref="M623:M627" ca="1" si="104">IF(OR(I623=0, E623=0), "", IF(OR(AND(E623=1,I623=1), AND(E623=-1,I623=-1)), 1, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -31279,27 +31281,27 @@
       </c>
       <c r="F628">
         <f ca="1">VLOOKUP(A628+3+7, BB!$A:$C,2, 0) - VLOOKUP(A628+3, BB!$A:$C,2, 0)</f>
-        <v>-1.0000000000000009E-2</v>
+        <v>0</v>
       </c>
       <c r="G628">
         <f ca="1">VLOOKUP(A628+3+7, BB!$A:$C,3, 0) - VLOOKUP(A628+3, BB!$A:$C,3, 0)</f>
-        <v>0.12919999999999998</v>
+        <v>0.14789999999999992</v>
       </c>
       <c r="H628">
         <f t="shared" ref="H628" ca="1" si="105">IF(F628&gt;0, -1, IF(F628&lt;0, 1, 0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I628">
         <f t="shared" ref="I628" ca="1" si="106">IF(G628&gt;0, -1, IF(G628&lt;0, 1, 0))</f>
         <v>-1</v>
       </c>
-      <c r="J628">
+      <c r="J628" t="str">
         <f t="shared" ref="J628" ca="1" si="107">IF(OR(H628=0, B628=0), "", IF(OR(AND(B628=1,H628=1), AND(B628=-1,H628=-1)), 1, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="K628">
+        <v/>
+      </c>
+      <c r="K628" t="str">
         <f t="shared" ref="K628" ca="1" si="108">IF(OR(H628=0, C628=0), "", IF(OR(AND(C628=1,H628=1), AND(C628=-1,H628=-1)), 1, 0))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L628">
         <f t="shared" ref="L628" ca="1" si="109">IF(OR(I628=0, D628=0), "", IF(OR(AND(D628=1,I628=1), AND(D628=-1,I628=-1)), 1, 0))</f>
@@ -31327,9 +31329,165 @@
       <c r="E629">
         <v>0</v>
       </c>
+      <c r="F629">
+        <f ca="1">VLOOKUP(A629+3+7, BB!$A:$C,2, 0) - VLOOKUP(A629+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G629">
+        <f ca="1">VLOOKUP(A629+3+7, BB!$A:$C,3, 0) - VLOOKUP(A629+3, BB!$A:$C,3, 0)</f>
+        <v>-0.15090000000000003</v>
+      </c>
+      <c r="H629">
+        <f t="shared" ref="H629:H632" ca="1" si="111">IF(F629&gt;0, -1, IF(F629&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I629">
+        <f t="shared" ref="I629:I632" ca="1" si="112">IF(G629&gt;0, -1, IF(G629&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J629">
+        <f t="shared" ref="J629:J632" ca="1" si="113">IF(OR(H629=0, B629=0), "", IF(OR(AND(B629=1,H629=1), AND(B629=-1,H629=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K629">
+        <f t="shared" ref="K629:K632" ca="1" si="114">IF(OR(H629=0, C629=0), "", IF(OR(AND(C629=1,H629=1), AND(C629=-1,H629=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L629">
+        <f t="shared" ref="L629:L632" ca="1" si="115">IF(OR(I629=0, D629=0), "", IF(OR(AND(D629=1,I629=1), AND(D629=-1,I629=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M629" t="str">
+        <f t="shared" ref="M629:M632" ca="1" si="116">IF(OR(I629=0, E629=0), "", IF(OR(AND(E629=1,I629=1), AND(E629=-1,I629=-1)), 1, 0))</f>
+        <v/>
+      </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A630" s="1"/>
+      <c r="A630" s="1">
+        <f t="shared" si="98"/>
+        <v>45674</v>
+      </c>
+      <c r="B630">
+        <v>1</v>
+      </c>
+      <c r="C630">
+        <v>1</v>
+      </c>
+      <c r="D630">
+        <v>1</v>
+      </c>
+      <c r="E630">
+        <v>0</v>
+      </c>
+      <c r="F630">
+        <f ca="1">VLOOKUP(A630+3+7, BB!$A:$C,2, 0) - VLOOKUP(A630+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G630">
+        <f ca="1">VLOOKUP(A630+3+7, BB!$A:$C,3, 0) - VLOOKUP(A630+3, BB!$A:$C,3, 0)</f>
+        <v>-9.2699999999999783E-2</v>
+      </c>
+      <c r="H630">
+        <f t="shared" ca="1" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="I630">
+        <f t="shared" ca="1" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="J630">
+        <f t="shared" ca="1" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="K630">
+        <f t="shared" ca="1" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="L630">
+        <f t="shared" ca="1" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="M630" t="str">
+        <f t="shared" ca="1" si="116"/>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <f t="shared" si="98"/>
+        <v>45681</v>
+      </c>
+      <c r="B631">
+        <v>1</v>
+      </c>
+      <c r="C631">
+        <v>1</v>
+      </c>
+      <c r="D631">
+        <v>1</v>
+      </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
+      <c r="F631">
+        <f ca="1">VLOOKUP(A631+3+7, BB!$A:$C,2, 0) - VLOOKUP(A631+3, BB!$A:$C,2, 0)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G631">
+        <f ca="1">VLOOKUP(A631+3+7, BB!$A:$C,3, 0) - VLOOKUP(A631+3, BB!$A:$C,3, 0)</f>
+        <v>2.0699999999999719E-2</v>
+      </c>
+      <c r="H631">
+        <f t="shared" ca="1" si="111"/>
+        <v>-1</v>
+      </c>
+      <c r="I631">
+        <f t="shared" ca="1" si="112"/>
+        <v>-1</v>
+      </c>
+      <c r="J631">
+        <f t="shared" ca="1" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="K631">
+        <f t="shared" ca="1" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="L631">
+        <f t="shared" ca="1" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="M631" t="str">
+        <f t="shared" ca="1" si="116"/>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <f t="shared" si="98"/>
+        <v>45688</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632">
+        <v>1</v>
+      </c>
+      <c r="E632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A633" s="1"/>
+    </row>
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A634" s="1"/>
+    </row>
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A635" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31340,10 +31498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M145"/>
+  <dimension ref="A1:M146"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38411,7 +38569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>45657</v>
       </c>
@@ -38426,6 +38584,55 @@
       </c>
       <c r="E145">
         <v>1</v>
+      </c>
+      <c r="F145">
+        <f>VLOOKUP(EOMONTH(A145,1), BB!A:C, 2, 1)-VLOOKUP(A145, BB!A:C, 2, 1)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G145">
+        <f>VLOOKUP(EOMONTH(A145,1), BB!A:C, 3, 1)-VLOOKUP(A145, BB!A:C, 3, 1)</f>
+        <v>-3.029999999999955E-2</v>
+      </c>
+      <c r="H145">
+        <f t="shared" ref="H145" si="40">IF(F145&gt;0, -1, IF(F145&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <f t="shared" ref="I145" si="41">IF(G145&gt;0, -1, IF(G145&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f t="shared" ref="J145" si="42">IF(B145=H145,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <f t="shared" ref="K145" si="43">IF(C145=I145,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <f t="shared" ref="L145" si="44">IF(D145=H145,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <f t="shared" ref="M145" si="45">IF(E145=I145,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B146">
+        <v>-1</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -38437,10 +38644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3141"/>
+  <dimension ref="A1:C3156"/>
   <sheetViews>
-    <sheetView topLeftCell="A3096" workbookViewId="0">
-      <selection activeCell="A3140" sqref="A3140"/>
+    <sheetView topLeftCell="A3120" workbookViewId="0">
+      <selection activeCell="B3158" sqref="B3158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -72983,25 +73190,190 @@
       </c>
     </row>
     <row r="3140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3140" s="6">
+      <c r="A3140" s="5">
         <v>45670</v>
       </c>
       <c r="B3140" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3140" s="2">
+        <v>4.7778999999999998</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3141" s="5">
+        <v>45671</v>
+      </c>
+      <c r="B3141" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3141" s="2">
+        <v>4.7923999999999998</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3142" s="5">
+        <v>45672</v>
+      </c>
+      <c r="B3142" s="2">
         <v>0.8</v>
       </c>
-      <c r="C3140" s="2">
-        <v>4.7591999999999999</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3141" s="6">
-        <v>45671</v>
-      </c>
-      <c r="B3141" s="2">
+      <c r="C3142" s="2">
+        <v>4.6531000000000002</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3143" s="5">
+        <v>45673</v>
+      </c>
+      <c r="B3143" s="2">
         <v>0.8</v>
       </c>
-      <c r="C3141" s="2">
-        <v>4.7591999999999999</v>
+      <c r="C3143" s="2">
+        <v>4.6124999999999998</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3144" s="5">
+        <v>45674</v>
+      </c>
+      <c r="B3144" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3144" s="2">
+        <v>4.6269999999999998</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3145" s="5">
+        <v>45677</v>
+      </c>
+      <c r="B3145" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3145" s="2">
+        <v>4.6269999999999998</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3146" s="5">
+        <v>45678</v>
+      </c>
+      <c r="B3146" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3146" s="2">
+        <v>4.5763999999999996</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3147" s="5">
+        <v>45679</v>
+      </c>
+      <c r="B3147" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3147" s="2">
+        <v>4.6109</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3148" s="5">
+        <v>45680</v>
+      </c>
+      <c r="B3148" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3148" s="2">
+        <v>4.6436000000000002</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3149" s="5">
+        <v>45681</v>
+      </c>
+      <c r="B3149" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3149" s="2">
+        <v>4.6214000000000004</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3150" s="5">
+        <v>45684</v>
+      </c>
+      <c r="B3150" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3150" s="2">
+        <v>4.5343</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3151" s="5">
+        <v>45685</v>
+      </c>
+      <c r="B3151" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3151" s="2">
+        <v>4.5323000000000002</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3152" s="5">
+        <v>45686</v>
+      </c>
+      <c r="B3152" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3152" s="2">
+        <v>4.5284000000000004</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3153" s="5">
+        <v>45687</v>
+      </c>
+      <c r="B3153" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3153" s="2">
+        <v>4.5163000000000002</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3154" s="5">
+        <v>45688</v>
+      </c>
+      <c r="B3154" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3154" s="2">
+        <v>4.5387000000000004</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3155" s="6">
+        <v>45691</v>
+      </c>
+      <c r="B3155" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3155" s="2">
+        <v>4.5549999999999997</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3156" s="6">
+        <v>45692</v>
+      </c>
+      <c r="B3156" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3156" s="2">
+        <v>4.5549999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M635"/>
+  <dimension ref="A1:M637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A589" workbookViewId="0">
-      <selection activeCell="H631" sqref="H631"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="Q626" sqref="Q626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30864,7 +30864,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A635" si="98">A619+7</f>
+        <f t="shared" ref="A620:A637" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -31277,7 +31277,7 @@
         <v>1</v>
       </c>
       <c r="E628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F628">
         <f ca="1">VLOOKUP(A628+3+7, BB!$A:$C,2, 0) - VLOOKUP(A628+3, BB!$A:$C,2, 0)</f>
@@ -31307,9 +31307,9 @@
         <f t="shared" ref="L628" ca="1" si="109">IF(OR(I628=0, D628=0), "", IF(OR(AND(D628=1,I628=1), AND(D628=-1,I628=-1)), 1, 0))</f>
         <v>0</v>
       </c>
-      <c r="M628" t="str">
+      <c r="M628">
         <f t="shared" ref="M628" ca="1" si="110">IF(OR(I628=0, E628=0), "", IF(OR(AND(E628=1,I628=1), AND(E628=-1,I628=-1)), 1, 0))</f>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:13" x14ac:dyDescent="0.2">
@@ -31327,7 +31327,7 @@
         <v>1</v>
       </c>
       <c r="E629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F629">
         <f ca="1">VLOOKUP(A629+3+7, BB!$A:$C,2, 0) - VLOOKUP(A629+3, BB!$A:$C,2, 0)</f>
@@ -31338,28 +31338,28 @@
         <v>-0.15090000000000003</v>
       </c>
       <c r="H629">
-        <f t="shared" ref="H629:H632" ca="1" si="111">IF(F629&gt;0, -1, IF(F629&lt;0, 1, 0))</f>
+        <f t="shared" ref="H629:H631" ca="1" si="111">IF(F629&gt;0, -1, IF(F629&lt;0, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="I629">
-        <f t="shared" ref="I629:I632" ca="1" si="112">IF(G629&gt;0, -1, IF(G629&lt;0, 1, 0))</f>
+        <f t="shared" ref="I629:I631" ca="1" si="112">IF(G629&gt;0, -1, IF(G629&lt;0, 1, 0))</f>
         <v>1</v>
       </c>
       <c r="J629">
-        <f t="shared" ref="J629:J632" ca="1" si="113">IF(OR(H629=0, B629=0), "", IF(OR(AND(B629=1,H629=1), AND(B629=-1,H629=-1)), 1, 0))</f>
+        <f t="shared" ref="J629:J631" ca="1" si="113">IF(OR(H629=0, B629=0), "", IF(OR(AND(B629=1,H629=1), AND(B629=-1,H629=-1)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="K629">
-        <f t="shared" ref="K629:K632" ca="1" si="114">IF(OR(H629=0, C629=0), "", IF(OR(AND(C629=1,H629=1), AND(C629=-1,H629=-1)), 1, 0))</f>
+        <f t="shared" ref="K629:K631" ca="1" si="114">IF(OR(H629=0, C629=0), "", IF(OR(AND(C629=1,H629=1), AND(C629=-1,H629=-1)), 1, 0))</f>
         <v>1</v>
       </c>
       <c r="L629">
-        <f t="shared" ref="L629:L632" ca="1" si="115">IF(OR(I629=0, D629=0), "", IF(OR(AND(D629=1,I629=1), AND(D629=-1,I629=-1)), 1, 0))</f>
-        <v>1</v>
-      </c>
-      <c r="M629" t="str">
-        <f t="shared" ref="M629:M632" ca="1" si="116">IF(OR(I629=0, E629=0), "", IF(OR(AND(E629=1,I629=1), AND(E629=-1,I629=-1)), 1, 0))</f>
-        <v/>
+        <f t="shared" ref="L629:L631" ca="1" si="115">IF(OR(I629=0, D629=0), "", IF(OR(AND(D629=1,I629=1), AND(D629=-1,I629=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M629">
+        <f t="shared" ref="M629:M631" ca="1" si="116">IF(OR(I629=0, E629=0), "", IF(OR(AND(E629=1,I629=1), AND(E629=-1,I629=-1)), 1, 0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:13" x14ac:dyDescent="0.2">
@@ -31377,7 +31377,7 @@
         <v>1</v>
       </c>
       <c r="E630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F630">
         <f ca="1">VLOOKUP(A630+3+7, BB!$A:$C,2, 0) - VLOOKUP(A630+3, BB!$A:$C,2, 0)</f>
@@ -31407,9 +31407,9 @@
         <f t="shared" ca="1" si="115"/>
         <v>1</v>
       </c>
-      <c r="M630" t="str">
+      <c r="M630">
         <f t="shared" ca="1" si="116"/>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:13" x14ac:dyDescent="0.2">
@@ -31427,7 +31427,7 @@
         <v>1</v>
       </c>
       <c r="E631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F631">
         <f ca="1">VLOOKUP(A631+3+7, BB!$A:$C,2, 0) - VLOOKUP(A631+3, BB!$A:$C,2, 0)</f>
@@ -31457,9 +31457,9 @@
         <f t="shared" ca="1" si="115"/>
         <v>0</v>
       </c>
-      <c r="M631" t="str">
+      <c r="M631">
         <f t="shared" ca="1" si="116"/>
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:13" x14ac:dyDescent="0.2">
@@ -31477,17 +31477,246 @@
         <v>1</v>
       </c>
       <c r="E632">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F632">
+        <f ca="1">VLOOKUP(A632+3+7, BB!$A:$C,2, 0) - VLOOKUP(A632+3, BB!$A:$C,2, 0)</f>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="G632">
+        <f ca="1">VLOOKUP(A632+3+7, BB!$A:$C,3, 0) - VLOOKUP(A632+3, BB!$A:$C,3, 0)</f>
+        <v>-5.8199999999999363E-2</v>
+      </c>
+      <c r="H632">
+        <f t="shared" ref="H632:H636" ca="1" si="117">IF(F632&gt;0, -1, IF(F632&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I632">
+        <f t="shared" ref="I632:I636" ca="1" si="118">IF(G632&gt;0, -1, IF(G632&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J632">
+        <f t="shared" ref="J632:J636" ca="1" si="119">IF(OR(H632=0, B632=0), "", IF(OR(AND(B632=1,H632=1), AND(B632=-1,H632=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="K632">
+        <f t="shared" ref="K632:K636" ca="1" si="120">IF(OR(H632=0, C632=0), "", IF(OR(AND(C632=1,H632=1), AND(C632=-1,H632=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L632">
+        <f t="shared" ref="L632:L636" ca="1" si="121">IF(OR(I632=0, D632=0), "", IF(OR(AND(D632=1,I632=1), AND(D632=-1,I632=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M632">
+        <f t="shared" ref="M632:M636" ca="1" si="122">IF(OR(I632=0, E632=0), "", IF(OR(AND(E632=1,I632=1), AND(E632=-1,I632=-1)), 1, 0))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A633" s="1"/>
+      <c r="A633" s="1">
+        <f t="shared" si="98"/>
+        <v>45695</v>
+      </c>
+      <c r="B633">
+        <v>1</v>
+      </c>
+      <c r="C633">
+        <v>1</v>
+      </c>
+      <c r="D633">
+        <v>1</v>
+      </c>
+      <c r="E633">
+        <v>-1</v>
+      </c>
+      <c r="F633">
+        <f ca="1">VLOOKUP(A633+3+7, BB!$A:$C,2, 0) - VLOOKUP(A633+3, BB!$A:$C,2, 0)</f>
+        <v>-3.9999999999999925E-2</v>
+      </c>
+      <c r="G633">
+        <f ca="1">VLOOKUP(A633+3+7, BB!$A:$C,3, 0) - VLOOKUP(A633+3, BB!$A:$C,3, 0)</f>
+        <v>-2.0599999999999952E-2</v>
+      </c>
+      <c r="H633">
+        <f t="shared" ca="1" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="I633">
+        <f t="shared" ca="1" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="J633">
+        <f t="shared" ca="1" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="K633">
+        <f t="shared" ca="1" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="L633">
+        <f t="shared" ca="1" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="M633">
+        <f t="shared" ca="1" si="122"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="634" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A634" s="1"/>
+      <c r="A634" s="1">
+        <f t="shared" si="98"/>
+        <v>45702</v>
+      </c>
+      <c r="B634">
+        <v>1</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634">
+        <v>1</v>
+      </c>
+      <c r="E634">
+        <v>-1</v>
+      </c>
+      <c r="F634">
+        <f ca="1">VLOOKUP(A634+3+7, BB!$A:$C,2, 0) - VLOOKUP(A634+3, BB!$A:$C,2, 0)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G634">
+        <f ca="1">VLOOKUP(A634+3+7, BB!$A:$C,3, 0) - VLOOKUP(A634+3, BB!$A:$C,3, 0)</f>
+        <v>-7.5900000000000745E-2</v>
+      </c>
+      <c r="H634">
+        <f t="shared" ca="1" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="I634">
+        <f t="shared" ca="1" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="J634">
+        <f t="shared" ca="1" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="K634">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="L634">
+        <f t="shared" ca="1" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="M634">
+        <f t="shared" ca="1" si="122"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="635" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A635" s="1"/>
+      <c r="A635" s="1">
+        <f t="shared" si="98"/>
+        <v>45709</v>
+      </c>
+      <c r="B635">
+        <v>1</v>
+      </c>
+      <c r="C635">
+        <v>1</v>
+      </c>
+      <c r="D635">
+        <v>1</v>
+      </c>
+      <c r="E635">
+        <v>-1</v>
+      </c>
+      <c r="F635">
+        <f ca="1">VLOOKUP(A635+3+7, BB!$A:$C,2, 0) - VLOOKUP(A635+3, BB!$A:$C,2, 0)</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="G635">
+        <f ca="1">VLOOKUP(A635+3+7, BB!$A:$C,3, 0) - VLOOKUP(A635+3, BB!$A:$C,3, 0)</f>
+        <v>-0.24519999999999964</v>
+      </c>
+      <c r="H635">
+        <f t="shared" ca="1" si="117"/>
+        <v>-1</v>
+      </c>
+      <c r="I635">
+        <f t="shared" ca="1" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="J635">
+        <f t="shared" ca="1" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="K635">
+        <f t="shared" ca="1" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="L635">
+        <f t="shared" ca="1" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="M635">
+        <f t="shared" ca="1" si="122"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <f t="shared" si="98"/>
+        <v>45716</v>
+      </c>
+      <c r="B636">
+        <v>1</v>
+      </c>
+      <c r="C636">
+        <v>1</v>
+      </c>
+      <c r="D636">
+        <v>1</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <f ca="1">VLOOKUP(A636+3+7, BB!$A:$C,2, 0) - VLOOKUP(A636+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G636">
+        <f ca="1">VLOOKUP(A636+3+7, BB!$A:$C,3, 0) - VLOOKUP(A636+3, BB!$A:$C,3, 0)</f>
+        <v>0.14599999999999991</v>
+      </c>
+      <c r="H636">
+        <f t="shared" ca="1" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="I636">
+        <f t="shared" ca="1" si="118"/>
+        <v>-1</v>
+      </c>
+      <c r="J636">
+        <f t="shared" ca="1" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="K636">
+        <f t="shared" ca="1" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="L636">
+        <f t="shared" ca="1" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="M636" t="str">
+        <f t="shared" ca="1" si="122"/>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <f t="shared" si="98"/>
+        <v>45723</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31498,10 +31727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M146"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38634,6 +38863,55 @@
       <c r="E146">
         <v>-1</v>
       </c>
+      <c r="F146">
+        <f>VLOOKUP(EOMONTH(A146,1), BB!A:C, 2, 1)-VLOOKUP(A146, BB!A:C, 2, 1)</f>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="G146">
+        <f>VLOOKUP(EOMONTH(A146,1), BB!A:C, 3, 1)-VLOOKUP(A146, BB!A:C, 3, 1)</f>
+        <v>-0.33050000000000068</v>
+      </c>
+      <c r="H146">
+        <f t="shared" ref="H146" si="46">IF(F146&gt;0, -1, IF(F146&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I146">
+        <f t="shared" ref="I146" si="47">IF(G146&gt;0, -1, IF(G146&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" ref="J146" si="48">IF(B146=H146,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <f t="shared" ref="K146" si="49">IF(C146=I146,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <f t="shared" ref="L146" si="50">IF(D146=H146,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <f t="shared" ref="M146" si="51">IF(E146=I146,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B147">
+        <v>-1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -38644,10 +38922,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3156"/>
+  <dimension ref="A1:C3180"/>
   <sheetViews>
-    <sheetView topLeftCell="A3120" workbookViewId="0">
-      <selection activeCell="B3158" sqref="B3158"/>
+    <sheetView topLeftCell="A3144" workbookViewId="0">
+      <selection activeCell="B3186" sqref="B3186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -73366,14 +73644,278 @@
       </c>
     </row>
     <row r="3156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3156" s="6">
+      <c r="A3156" s="5">
         <v>45692</v>
       </c>
       <c r="B3156" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3156" s="2">
+        <v>4.5105000000000004</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3157" s="5">
+        <v>45693</v>
+      </c>
+      <c r="B3157" s="2">
         <v>0.81</v>
       </c>
-      <c r="C3156" s="2">
-        <v>4.5549999999999997</v>
+      <c r="C3157" s="2">
+        <v>4.4180999999999999</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3158" s="5">
+        <v>45694</v>
+      </c>
+      <c r="B3158" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C3158" s="2">
+        <v>4.4341999999999997</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3159" s="5">
+        <v>45695</v>
+      </c>
+      <c r="B3159" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C3159" s="2">
+        <v>4.4946999999999999</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3160" s="5">
+        <v>45698</v>
+      </c>
+      <c r="B3160" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C3160" s="2">
+        <v>4.4968000000000004</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3161" s="5">
+        <v>45699</v>
+      </c>
+      <c r="B3161" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3161" s="2">
+        <v>4.5351999999999997</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3162" s="5">
+        <v>45700</v>
+      </c>
+      <c r="B3162" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3162" s="2">
+        <v>4.6208</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3163" s="5">
+        <v>45701</v>
+      </c>
+      <c r="B3163" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3163" s="2">
+        <v>4.5288000000000004</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3164" s="5">
+        <v>45702</v>
+      </c>
+      <c r="B3164" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3164" s="2">
+        <v>4.4762000000000004</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3165" s="5">
+        <v>45705</v>
+      </c>
+      <c r="B3165" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3165" s="2">
+        <v>4.4762000000000004</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3166" s="5">
+        <v>45706</v>
+      </c>
+      <c r="B3166" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3166" s="2">
+        <v>4.5503</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3167" s="5">
+        <v>45707</v>
+      </c>
+      <c r="B3167" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3167" s="2">
+        <v>4.5327000000000002</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3168" s="5">
+        <v>45708</v>
+      </c>
+      <c r="B3168" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3168" s="2">
+        <v>4.5053000000000001</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3169" s="5">
+        <v>45709</v>
+      </c>
+      <c r="B3169" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3169" s="2">
+        <v>4.4313000000000002</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3170" s="5">
+        <v>45712</v>
+      </c>
+      <c r="B3170" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3170" s="2">
+        <v>4.4002999999999997</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3171" s="5">
+        <v>45713</v>
+      </c>
+      <c r="B3171" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C3171" s="2">
+        <v>4.2945000000000002</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3172" s="5">
+        <v>45714</v>
+      </c>
+      <c r="B3172" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="C3172" s="2">
+        <v>4.2561999999999998</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3173" s="5">
+        <v>45715</v>
+      </c>
+      <c r="B3173" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3173" s="2">
+        <v>4.2599</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3174" s="5">
+        <v>45716</v>
+      </c>
+      <c r="B3174" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C3174" s="2">
+        <v>4.2081999999999997</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3175" s="5">
+        <v>45719</v>
+      </c>
+      <c r="B3175" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3175" s="2">
+        <v>4.1551</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3176" s="5">
+        <v>45720</v>
+      </c>
+      <c r="B3176" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3176" s="2">
+        <v>4.2442000000000002</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3177" s="5">
+        <v>45721</v>
+      </c>
+      <c r="B3177" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3177" s="2">
+        <v>4.2785000000000002</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3178" s="5">
+        <v>45722</v>
+      </c>
+      <c r="B3178" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C3178" s="2">
+        <v>4.2784000000000004</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3179" s="5">
+        <v>45723</v>
+      </c>
+      <c r="B3179" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C3179" s="2">
+        <v>4.3010999999999999</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3180" s="5">
+        <v>45726</v>
+      </c>
+      <c r="B3180" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C3180" s="2">
+        <v>4.3010999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="Q626" sqref="Q626"/>
+    <sheetView topLeftCell="A595" workbookViewId="0">
+      <selection activeCell="D637" sqref="D637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31717,6 +31717,18 @@
         <f t="shared" si="98"/>
         <v>45723</v>
       </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+      <c r="D637">
+        <v>1</v>
+      </c>
+      <c r="E637">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31729,8 +31741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -111,41 +111,41 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>Credit_Monthly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration_Monthly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chg_Credit</t>
   </si>
   <si>
     <t>Chg_Dur</t>
   </si>
   <si>
-    <t>Hit_Credit</t>
+    <t>Credit_Monthly_I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hit_Duration</t>
+    <t>Duration_Monthly_I</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Credit_Monthly_advTree</t>
+    <t>Credit_Monthly_II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Duration_Monthly_advTree</t>
+    <t>Duration_Monthly_II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hit_Credit_adv</t>
+    <t>Hit_Credit_II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hit_Duration_adv</t>
+    <t>Hit_Credit_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Duration_I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit_Duration_II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -31741,8 +31741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31767,22 +31767,22 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -31791,13 +31791,13 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
         <v>25</v>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -522,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M637"/>
+  <dimension ref="A1:M642"/>
   <sheetViews>
-    <sheetView topLeftCell="A595" workbookViewId="0">
-      <selection activeCell="D637" sqref="D637"/>
+    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
+      <selection activeCell="E647" sqref="E647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30864,7 +30864,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A637" si="98">A619+7</f>
+        <f t="shared" ref="A620:A641" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -31681,15 +31681,15 @@
       </c>
       <c r="F636">
         <f ca="1">VLOOKUP(A636+3+7, BB!$A:$C,2, 0) - VLOOKUP(A636+3, BB!$A:$C,2, 0)</f>
-        <v>-1.0000000000000009E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="G636">
         <f ca="1">VLOOKUP(A636+3+7, BB!$A:$C,3, 0) - VLOOKUP(A636+3, BB!$A:$C,3, 0)</f>
-        <v>0.14599999999999991</v>
+        <v>5.7999999999999829E-2</v>
       </c>
       <c r="H636">
         <f t="shared" ca="1" si="117"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I636">
         <f t="shared" ca="1" si="118"/>
@@ -31697,11 +31697,11 @@
       </c>
       <c r="J636">
         <f t="shared" ca="1" si="119"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K636">
         <f t="shared" ca="1" si="120"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L636">
         <f t="shared" ca="1" si="121"/>
@@ -31729,6 +31729,209 @@
       <c r="E637">
         <v>-1</v>
       </c>
+      <c r="F637">
+        <f ca="1">VLOOKUP(A637+3+7, BB!$A:$C,2, 0) - VLOOKUP(A637+3, BB!$A:$C,2, 0)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G637">
+        <f ca="1">VLOOKUP(A637+3+7, BB!$A:$C,3, 0) - VLOOKUP(A637+3, BB!$A:$C,3, 0)</f>
+        <v>8.539999999999992E-2</v>
+      </c>
+      <c r="H637">
+        <f t="shared" ref="H637:H639" ca="1" si="123">IF(F637&gt;0, -1, IF(F637&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I637">
+        <f t="shared" ref="I637:I639" ca="1" si="124">IF(G637&gt;0, -1, IF(G637&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J637">
+        <f t="shared" ref="J637:J639" ca="1" si="125">IF(OR(H637=0, B637=0), "", IF(OR(AND(B637=1,H637=1), AND(B637=-1,H637=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="K637">
+        <f t="shared" ref="K637:K639" ca="1" si="126">IF(OR(H637=0, C637=0), "", IF(OR(AND(C637=1,H637=1), AND(C637=-1,H637=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L637">
+        <f t="shared" ref="L637:L639" ca="1" si="127">IF(OR(I637=0, D637=0), "", IF(OR(AND(D637=1,I637=1), AND(D637=-1,I637=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M637">
+        <f t="shared" ref="M637:M639" ca="1" si="128">IF(OR(I637=0, E637=0), "", IF(OR(AND(E637=1,I637=1), AND(E637=-1,I637=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <f t="shared" si="98"/>
+        <v>45730</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638">
+        <v>1</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638">
+        <f ca="1">VLOOKUP(A638+3+7, BB!$A:$C,2, 0) - VLOOKUP(A638+3, BB!$A:$C,2, 0)</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="G638">
+        <f ca="1">VLOOKUP(A638+3+7, BB!$A:$C,3, 0) - VLOOKUP(A638+3, BB!$A:$C,3, 0)</f>
+        <v>3.6100000000000243E-2</v>
+      </c>
+      <c r="H638">
+        <f t="shared" ca="1" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="I638">
+        <f t="shared" ca="1" si="124"/>
+        <v>-1</v>
+      </c>
+      <c r="J638">
+        <f t="shared" ca="1" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="K638">
+        <f t="shared" ca="1" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="L638">
+        <f t="shared" ca="1" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="M638" t="str">
+        <f t="shared" ca="1" si="128"/>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <f t="shared" si="98"/>
+        <v>45737</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639">
+        <v>1</v>
+      </c>
+      <c r="E639">
+        <v>0</v>
+      </c>
+      <c r="F639">
+        <f ca="1">VLOOKUP(A639+3+7, BB!$A:$C,2, 0) - VLOOKUP(A639+3, BB!$A:$C,2, 0)</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="G639">
+        <f ca="1">VLOOKUP(A639+3+7, BB!$A:$C,3, 0) - VLOOKUP(A639+3, BB!$A:$C,3, 0)</f>
+        <v>-0.12929999999999975</v>
+      </c>
+      <c r="H639">
+        <f t="shared" ca="1" si="123"/>
+        <v>-1</v>
+      </c>
+      <c r="I639">
+        <f t="shared" ca="1" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="J639">
+        <f t="shared" ca="1" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="K639">
+        <f t="shared" ca="1" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="L639">
+        <f t="shared" ca="1" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="M639" t="str">
+        <f t="shared" ca="1" si="128"/>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <f t="shared" si="98"/>
+        <v>45744</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640">
+        <v>1</v>
+      </c>
+      <c r="E640">
+        <v>1</v>
+      </c>
+      <c r="F640">
+        <f ca="1">VLOOKUP(A640+3+7, BB!$A:$C,2, 0) - VLOOKUP(A640+3, BB!$A:$C,2, 0)</f>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="G640">
+        <f ca="1">VLOOKUP(A640+3+7, BB!$A:$C,3, 0) - VLOOKUP(A640+3, BB!$A:$C,3, 0)</f>
+        <v>-2.179999999999982E-2</v>
+      </c>
+      <c r="H640">
+        <f t="shared" ref="H640" ca="1" si="129">IF(F640&gt;0, -1, IF(F640&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I640">
+        <f t="shared" ref="I640" ca="1" si="130">IF(G640&gt;0, -1, IF(G640&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J640">
+        <f t="shared" ref="J640" ca="1" si="131">IF(OR(H640=0, B640=0), "", IF(OR(AND(B640=1,H640=1), AND(B640=-1,H640=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="K640">
+        <f t="shared" ref="K640" ca="1" si="132">IF(OR(H640=0, C640=0), "", IF(OR(AND(C640=1,H640=1), AND(C640=-1,H640=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L640">
+        <f t="shared" ref="L640" ca="1" si="133">IF(OR(I640=0, D640=0), "", IF(OR(AND(D640=1,I640=1), AND(D640=-1,I640=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M640">
+        <f t="shared" ref="M640" ca="1" si="134">IF(OR(I640=0, E640=0), "", IF(OR(AND(E640=1,I640=1), AND(E640=-1,I640=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <f t="shared" si="98"/>
+        <v>45751</v>
+      </c>
+      <c r="B641">
+        <v>1</v>
+      </c>
+      <c r="C641">
+        <v>1</v>
+      </c>
+      <c r="D641">
+        <v>-1</v>
+      </c>
+      <c r="E641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A642" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31739,10 +31942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38924,6 +39127,55 @@
       <c r="E147">
         <v>-1</v>
       </c>
+      <c r="F147">
+        <f>VLOOKUP(EOMONTH(A147,1), BB!A:C, 2, 1)-VLOOKUP(A147, BB!A:C, 2, 1)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="G147">
+        <f>VLOOKUP(EOMONTH(A147,1), BB!A:C, 3, 1)-VLOOKUP(A147, BB!A:C, 3, 1)</f>
+        <v>-2.8999999999994586E-3</v>
+      </c>
+      <c r="H147">
+        <f t="shared" ref="H147" si="52">IF(F147&gt;0, -1, IF(F147&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ref="I147" si="53">IF(G147&gt;0, -1, IF(G147&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <f t="shared" ref="J147" si="54">IF(B147=H147,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <f t="shared" ref="K147" si="55">IF(C147=I147,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <f t="shared" ref="L147" si="56">IF(D147=H147,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <f t="shared" ref="M147" si="57">IF(E147=I147,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B148">
+        <v>-1</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -38934,10 +39186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3180"/>
+  <dimension ref="A1:C3200"/>
   <sheetViews>
-    <sheetView topLeftCell="A3144" workbookViewId="0">
-      <selection activeCell="B3186" sqref="B3186"/>
+    <sheetView topLeftCell="A3156" workbookViewId="0">
+      <selection activeCell="E3191" sqref="E3191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -38961,14 +39213,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="e">
-        <f ca="1">_xll.BDH(B1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","cols=2;rows=3110")</f>
+        <f ca="1">_xll.BDH(B1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","cols=2;rows=3198")</f>
         <v>#NAME?</v>
       </c>
       <c r="B2" s="4">
         <v>1.38</v>
       </c>
       <c r="C2" s="4" t="e">
-        <f ca="1">_xll.BDH(C1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","DTS=H","cols=1;rows=3110")</f>
+        <f ca="1">_xll.BDH(C1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","DTS=H","cols=1;rows=3198")</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -73645,7 +73897,7 @@
       </c>
     </row>
     <row r="3155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3155" s="6">
+      <c r="A3155" s="5">
         <v>45691</v>
       </c>
       <c r="B3155" s="2">
@@ -73924,10 +74176,230 @@
         <v>45726</v>
       </c>
       <c r="B3180" s="2">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="C3180" s="2">
-        <v>4.3010999999999999</v>
+        <v>4.2130999999999998</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3181" s="5">
+        <v>45727</v>
+      </c>
+      <c r="B3181" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C3181" s="2">
+        <v>4.2798999999999996</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3182" s="5">
+        <v>45728</v>
+      </c>
+      <c r="B3182" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C3182" s="2">
+        <v>4.3124000000000002</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3183" s="5">
+        <v>45729</v>
+      </c>
+      <c r="B3183" s="2">
+        <v>0.97</v>
+      </c>
+      <c r="C3183" s="2">
+        <v>4.2682000000000002</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3184" s="5">
+        <v>45730</v>
+      </c>
+      <c r="B3184" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C3184" s="2">
+        <v>4.3121</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3185" s="5">
+        <v>45733</v>
+      </c>
+      <c r="B3185" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C3185" s="2">
+        <v>4.2984999999999998</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3186" s="5">
+        <v>45734</v>
+      </c>
+      <c r="B3186" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="C3186" s="2">
+        <v>4.2831000000000001</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3187" s="5">
+        <v>45735</v>
+      </c>
+      <c r="B3187" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C3187" s="2">
+        <v>4.2427999999999999</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3188" s="5">
+        <v>45736</v>
+      </c>
+      <c r="B3188" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C3188" s="2">
+        <v>4.2369000000000003</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3189" s="5">
+        <v>45737</v>
+      </c>
+      <c r="B3189" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C3189" s="2">
+        <v>4.2462</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3190" s="5">
+        <v>45740</v>
+      </c>
+      <c r="B3190" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C3190" s="2">
+        <v>4.3346</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3191" s="5">
+        <v>45741</v>
+      </c>
+      <c r="B3191" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C3191" s="2">
+        <v>4.3132999999999999</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3192" s="5">
+        <v>45742</v>
+      </c>
+      <c r="B3192" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C3192" s="2">
+        <v>4.3518999999999997</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3193" s="5">
+        <v>45743</v>
+      </c>
+      <c r="B3193" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C3193" s="2">
+        <v>4.3594999999999997</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3194" s="5">
+        <v>45744</v>
+      </c>
+      <c r="B3194" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C3194" s="2">
+        <v>4.2493999999999996</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3195" s="5">
+        <v>45747</v>
+      </c>
+      <c r="B3195" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C3195" s="2">
+        <v>4.2053000000000003</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3196" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B3196" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="C3196" s="2">
+        <v>4.1688999999999998</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3197" s="5">
+        <v>45749</v>
+      </c>
+      <c r="B3197" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="C3197" s="2">
+        <v>4.1307</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3198" s="5">
+        <v>45750</v>
+      </c>
+      <c r="B3198" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C3198" s="2">
+        <v>4.0286</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3199" s="5">
+        <v>45751</v>
+      </c>
+      <c r="B3199" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C3199" s="2">
+        <v>3.9943</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3200" s="6">
+        <v>45754</v>
+      </c>
+      <c r="B3200" s="2">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C3200" s="2">
+        <v>4.1835000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -219,7 +219,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -236,9 +236,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -522,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M642"/>
+  <dimension ref="A1:M646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A608" workbookViewId="0">
-      <selection activeCell="E647" sqref="E647"/>
+    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
+      <selection activeCell="D638" sqref="D638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30864,7 +30861,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A641" si="98">A619+7</f>
+        <f t="shared" ref="A620:A646" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -31912,7 +31909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <f t="shared" si="98"/>
         <v>45751</v>
@@ -31929,9 +31926,209 @@
       <c r="E641">
         <v>1</v>
       </c>
-    </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A642" s="1"/>
+      <c r="F641">
+        <f ca="1">VLOOKUP(A641+3+7, BB!$A:$C,2, 0) - VLOOKUP(A641+3, BB!$A:$C,2, 0)</f>
+        <v>-3.9999999999999813E-2</v>
+      </c>
+      <c r="G641">
+        <f ca="1">VLOOKUP(A641+3+7, BB!$A:$C,3, 0) - VLOOKUP(A641+3, BB!$A:$C,3, 0)</f>
+        <v>0.19039999999999946</v>
+      </c>
+      <c r="H641">
+        <f t="shared" ref="H641:H644" ca="1" si="135">IF(F641&gt;0, -1, IF(F641&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I641">
+        <f t="shared" ref="I641:I644" ca="1" si="136">IF(G641&gt;0, -1, IF(G641&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J641">
+        <f t="shared" ref="J641:J644" ca="1" si="137">IF(OR(H641=0, B641=0), "", IF(OR(AND(B641=1,H641=1), AND(B641=-1,H641=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K641">
+        <f t="shared" ref="K641:K644" ca="1" si="138">IF(OR(H641=0, C641=0), "", IF(OR(AND(C641=1,H641=1), AND(C641=-1,H641=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L641">
+        <f t="shared" ref="L641:L644" ca="1" si="139">IF(OR(I641=0, D641=0), "", IF(OR(AND(D641=1,I641=1), AND(D641=-1,I641=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M641">
+        <f t="shared" ref="M641:M644" ca="1" si="140">IF(OR(I641=0, E641=0), "", IF(OR(AND(E641=1,I641=1), AND(E641=-1,I641=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <f t="shared" si="98"/>
+        <v>45758</v>
+      </c>
+      <c r="B642">
+        <v>1</v>
+      </c>
+      <c r="C642">
+        <v>1</v>
+      </c>
+      <c r="D642">
+        <v>1</v>
+      </c>
+      <c r="E642">
+        <v>1</v>
+      </c>
+      <c r="F642">
+        <f ca="1">VLOOKUP(A642+3+7, BB!$A:$C,2, 0) - VLOOKUP(A642+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G642">
+        <f ca="1">VLOOKUP(A642+3+7, BB!$A:$C,3, 0) - VLOOKUP(A642+3, BB!$A:$C,3, 0)</f>
+        <v>3.6699999999999733E-2</v>
+      </c>
+      <c r="H642">
+        <f t="shared" ca="1" si="135"/>
+        <v>1</v>
+      </c>
+      <c r="I642">
+        <f t="shared" ca="1" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="J642">
+        <f t="shared" ca="1" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="K642">
+        <f t="shared" ca="1" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="L642">
+        <f t="shared" ca="1" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="M642">
+        <f t="shared" ca="1" si="140"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <f t="shared" si="98"/>
+        <v>45765</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+      <c r="D643">
+        <v>1</v>
+      </c>
+      <c r="E643">
+        <v>1</v>
+      </c>
+      <c r="F643">
+        <f ca="1">VLOOKUP(A643+3+7, BB!$A:$C,2, 0) - VLOOKUP(A643+3, BB!$A:$C,2, 0)</f>
+        <v>-9.000000000000008E-2</v>
+      </c>
+      <c r="G643">
+        <f ca="1">VLOOKUP(A643+3+7, BB!$A:$C,3, 0) - VLOOKUP(A643+3, BB!$A:$C,3, 0)</f>
+        <v>-0.20239999999999991</v>
+      </c>
+      <c r="H643">
+        <f t="shared" ca="1" si="135"/>
+        <v>1</v>
+      </c>
+      <c r="I643">
+        <f t="shared" ca="1" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="J643">
+        <f t="shared" ca="1" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="K643">
+        <f t="shared" ca="1" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="L643">
+        <f t="shared" ca="1" si="139"/>
+        <v>1</v>
+      </c>
+      <c r="M643">
+        <f t="shared" ca="1" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <f t="shared" si="98"/>
+        <v>45772</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644">
+        <v>1</v>
+      </c>
+      <c r="E644">
+        <v>1</v>
+      </c>
+      <c r="F644">
+        <f ca="1">VLOOKUP(A644+3+7, BB!$A:$C,2, 0) - VLOOKUP(A644+3, BB!$A:$C,2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G644">
+        <f ca="1">VLOOKUP(A644+3+7, BB!$A:$C,3, 0) - VLOOKUP(A644+3, BB!$A:$C,3, 0)</f>
+        <v>0.13510000000000044</v>
+      </c>
+      <c r="H644">
+        <f t="shared" ca="1" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="I644">
+        <f t="shared" ca="1" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="J644" t="str">
+        <f t="shared" ca="1" si="137"/>
+        <v/>
+      </c>
+      <c r="K644" t="str">
+        <f t="shared" ca="1" si="138"/>
+        <v/>
+      </c>
+      <c r="L644">
+        <f t="shared" ca="1" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="M644">
+        <f t="shared" ca="1" si="140"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <f t="shared" si="98"/>
+        <v>45779</v>
+      </c>
+      <c r="B645">
+        <v>1</v>
+      </c>
+      <c r="C645">
+        <v>1</v>
+      </c>
+      <c r="D645">
+        <v>1</v>
+      </c>
+      <c r="E645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A646" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31942,10 +32139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39176,6 +39373,55 @@
       <c r="E148">
         <v>-1</v>
       </c>
+      <c r="F148">
+        <f>VLOOKUP(EOMONTH(A148,1), BB!A:C, 2, 1)-VLOOKUP(A148, BB!A:C, 2, 1)</f>
+        <v>0.12000000000000011</v>
+      </c>
+      <c r="G148">
+        <f>VLOOKUP(EOMONTH(A148,1), BB!A:C, 3, 1)-VLOOKUP(A148, BB!A:C, 3, 1)</f>
+        <v>-4.3400000000000105E-2</v>
+      </c>
+      <c r="H148">
+        <f t="shared" ref="H148" si="58">IF(F148&gt;0, -1, IF(F148&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I148">
+        <f t="shared" ref="I148" si="59">IF(G148&gt;0, -1, IF(G148&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <f t="shared" ref="J148" si="60">IF(B148=H148,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <f t="shared" ref="K148" si="61">IF(C148=I148,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <f t="shared" ref="L148" si="62">IF(D148=H148,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <f t="shared" ref="M148" si="63">IF(E148=I148,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39186,10 +39432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3200"/>
+  <dimension ref="A1:C3222"/>
   <sheetViews>
-    <sheetView topLeftCell="A3156" workbookViewId="0">
-      <selection activeCell="E3191" sqref="E3191"/>
+    <sheetView topLeftCell="A3180" workbookViewId="0">
+      <selection activeCell="C3221" sqref="C3221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -39213,14 +39459,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="e">
-        <f ca="1">_xll.BDH(B1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","cols=2;rows=3198")</f>
+        <f ca="1">_xll.BDH(B1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","cols=2;rows=3221")</f>
         <v>#NAME?</v>
       </c>
       <c r="B2" s="4">
         <v>1.38</v>
       </c>
       <c r="C2" s="4" t="e">
-        <f ca="1">_xll.BDH(C1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","DTS=H","cols=1;rows=3198")</f>
+        <f ca="1">_xll.BDH(C1,"PX_LAST","2013-01-02",TODAY()-1, "DAYS=W","FILL=P","DTS=H","cols=1;rows=3221")</f>
         <v>#NAME?</v>
       </c>
     </row>
@@ -74392,7 +74638,7 @@
       </c>
     </row>
     <row r="3200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3200" s="6">
+      <c r="A3200" s="5">
         <v>45754</v>
       </c>
       <c r="B3200" s="2">
@@ -74400,6 +74646,248 @@
       </c>
       <c r="C3200" s="2">
         <v>4.1835000000000004</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3201" s="5">
+        <v>45755</v>
+      </c>
+      <c r="B3201" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="C3201" s="2">
+        <v>4.2929000000000004</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3202" s="5">
+        <v>45756</v>
+      </c>
+      <c r="B3202" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C3202" s="2">
+        <v>4.3315000000000001</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3203" s="5">
+        <v>45757</v>
+      </c>
+      <c r="B3203" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="C3203" s="2">
+        <v>4.4249000000000001</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3204" s="5">
+        <v>45758</v>
+      </c>
+      <c r="B3204" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C3204" s="2">
+        <v>4.4894999999999996</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3205" s="5">
+        <v>45761</v>
+      </c>
+      <c r="B3205" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C3205" s="2">
+        <v>4.3738999999999999</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3206" s="5">
+        <v>45762</v>
+      </c>
+      <c r="B3206" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C3206" s="2">
+        <v>4.3330000000000002</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3207" s="5">
+        <v>45763</v>
+      </c>
+      <c r="B3207" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C3207" s="2">
+        <v>4.2767999999999997</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3208" s="5">
+        <v>45764</v>
+      </c>
+      <c r="B3208" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="C3208" s="2">
+        <v>4.3249000000000004</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3209" s="5">
+        <v>45765</v>
+      </c>
+      <c r="B3209" s="2">
+        <v>1.08</v>
+      </c>
+      <c r="C3209" s="2">
+        <v>4.3249000000000004</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3210" s="5">
+        <v>45768</v>
+      </c>
+      <c r="B3210" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C3210" s="2">
+        <v>4.4105999999999996</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3211" s="5">
+        <v>45769</v>
+      </c>
+      <c r="B3211" s="2">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="C3211" s="2">
+        <v>4.4008000000000003</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3212" s="5">
+        <v>45770</v>
+      </c>
+      <c r="B3212" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="C3212" s="2">
+        <v>4.3811999999999998</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3213" s="5">
+        <v>45771</v>
+      </c>
+      <c r="B3213" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="C3213" s="2">
+        <v>4.3148999999999997</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3214" s="5">
+        <v>45772</v>
+      </c>
+      <c r="B3214" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="C3214" s="2">
+        <v>4.2352999999999996</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3215" s="5">
+        <v>45775</v>
+      </c>
+      <c r="B3215" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C3215" s="2">
+        <v>4.2081999999999997</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3216" s="5">
+        <v>45776</v>
+      </c>
+      <c r="B3216" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="C3216" s="2">
+        <v>4.1715999999999998</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3217" s="5">
+        <v>45777</v>
+      </c>
+      <c r="B3217" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="C3217" s="2">
+        <v>4.1619000000000002</v>
+      </c>
+    </row>
+    <row r="3218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3218" s="5">
+        <v>45778</v>
+      </c>
+      <c r="B3218" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="C3218" s="2">
+        <v>4.2176</v>
+      </c>
+    </row>
+    <row r="3219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3219" s="5">
+        <v>45779</v>
+      </c>
+      <c r="B3219" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C3219" s="2">
+        <v>4.3083</v>
+      </c>
+    </row>
+    <row r="3220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3220" s="5">
+        <v>45782</v>
+      </c>
+      <c r="B3220" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C3220" s="2">
+        <v>4.3433000000000002</v>
+      </c>
+    </row>
+    <row r="3221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3221" s="5">
+        <v>45783</v>
+      </c>
+      <c r="B3221" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C3221" s="2">
+        <v>4.2946</v>
+      </c>
+    </row>
+    <row r="3222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3222" s="5">
+        <v>45784</v>
+      </c>
+      <c r="B3222" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="C3222" s="2">
+        <v>4.2694000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -519,11 +519,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M646"/>
+  <dimension ref="A1:M653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="D638" sqref="D638"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30861,7 +30859,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A646" si="98">A619+7</f>
+        <f t="shared" ref="A620:A650" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -32126,9 +32124,259 @@
       <c r="E645">
         <v>1</v>
       </c>
+      <c r="F645">
+        <f ca="1">VLOOKUP(A645+3+7, BB!$A:$C,2, 0) - VLOOKUP(A645+3, BB!$A:$C,2, 0)</f>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="G645">
+        <f ca="1">VLOOKUP(A645+3+7, BB!$A:$C,3, 0) - VLOOKUP(A645+3, BB!$A:$C,3, 0)</f>
+        <v>0.12760000000000016</v>
+      </c>
+      <c r="H645">
+        <f t="shared" ref="H645:H649" ca="1" si="141">IF(F645&gt;0, -1, IF(F645&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I645">
+        <f t="shared" ref="I645:I649" ca="1" si="142">IF(G645&gt;0, -1, IF(G645&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J645">
+        <f t="shared" ref="J645:J649" ca="1" si="143">IF(OR(H645=0, B645=0), "", IF(OR(AND(B645=1,H645=1), AND(B645=-1,H645=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K645">
+        <f t="shared" ref="K645:K649" ca="1" si="144">IF(OR(H645=0, C645=0), "", IF(OR(AND(C645=1,H645=1), AND(C645=-1,H645=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="L645">
+        <f t="shared" ref="L645:L649" ca="1" si="145">IF(OR(I645=0, D645=0), "", IF(OR(AND(D645=1,I645=1), AND(D645=-1,I645=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M645">
+        <f t="shared" ref="M645:M649" ca="1" si="146">IF(OR(I645=0, E645=0), "", IF(OR(AND(E645=1,I645=1), AND(E645=-1,I645=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="646" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A646" s="1"/>
+      <c r="A646" s="1">
+        <f t="shared" si="98"/>
+        <v>45786</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+      <c r="D646">
+        <v>1</v>
+      </c>
+      <c r="E646">
+        <v>1</v>
+      </c>
+      <c r="F646">
+        <f ca="1">VLOOKUP(A646+3+7, BB!$A:$C,2, 0) - VLOOKUP(A646+3, BB!$A:$C,2, 0)</f>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="G646">
+        <f ca="1">VLOOKUP(A646+3+7, BB!$A:$C,3, 0) - VLOOKUP(A646+3, BB!$A:$C,3, 0)</f>
+        <v>-2.3500000000000298E-2</v>
+      </c>
+      <c r="H646">
+        <f t="shared" ca="1" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="I646">
+        <f t="shared" ca="1" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J646">
+        <f t="shared" ca="1" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="K646">
+        <f t="shared" ca="1" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="L646">
+        <f t="shared" ca="1" si="145"/>
+        <v>1</v>
+      </c>
+      <c r="M646">
+        <f t="shared" ca="1" si="146"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <f t="shared" si="98"/>
+        <v>45793</v>
+      </c>
+      <c r="B647">
+        <v>1</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+      <c r="D647">
+        <v>1</v>
+      </c>
+      <c r="E647">
+        <v>1</v>
+      </c>
+      <c r="F647">
+        <f ca="1">VLOOKUP(A647+3+7, BB!$A:$C,2, 0) - VLOOKUP(A647+3, BB!$A:$C,2, 0)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G647">
+        <f ca="1">VLOOKUP(A647+3+7, BB!$A:$C,3, 0) - VLOOKUP(A647+3, BB!$A:$C,3, 0)</f>
+        <v>6.3600000000000101E-2</v>
+      </c>
+      <c r="H647">
+        <f t="shared" ca="1" si="141"/>
+        <v>-1</v>
+      </c>
+      <c r="I647">
+        <f t="shared" ca="1" si="142"/>
+        <v>-1</v>
+      </c>
+      <c r="J647">
+        <f t="shared" ca="1" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="K647">
+        <f t="shared" ca="1" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="L647">
+        <f t="shared" ca="1" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="M647">
+        <f t="shared" ca="1" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <f t="shared" si="98"/>
+        <v>45800</v>
+      </c>
+      <c r="B648">
+        <v>1</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+      <c r="D648">
+        <v>1</v>
+      </c>
+      <c r="E648">
+        <v>1</v>
+      </c>
+      <c r="F648">
+        <f ca="1">VLOOKUP(A648+3+7, BB!$A:$C,2, 0) - VLOOKUP(A648+3, BB!$A:$C,2, 0)</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="G648">
+        <f ca="1">VLOOKUP(A648+3+7, BB!$A:$C,3, 0) - VLOOKUP(A648+3, BB!$A:$C,3, 0)</f>
+        <v>-7.1100000000000385E-2</v>
+      </c>
+      <c r="H648">
+        <f t="shared" ca="1" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="I648">
+        <f t="shared" ca="1" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="J648">
+        <f t="shared" ca="1" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="K648">
+        <f t="shared" ca="1" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="L648">
+        <f t="shared" ca="1" si="145"/>
+        <v>1</v>
+      </c>
+      <c r="M648">
+        <f t="shared" ca="1" si="146"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <f t="shared" si="98"/>
+        <v>45807</v>
+      </c>
+      <c r="B649">
+        <v>1</v>
+      </c>
+      <c r="C649">
+        <v>1</v>
+      </c>
+      <c r="D649">
+        <v>1</v>
+      </c>
+      <c r="E649">
+        <v>1</v>
+      </c>
+      <c r="F649">
+        <f ca="1">VLOOKUP(A649+3+7, BB!$A:$C,2, 0) - VLOOKUP(A649+3, BB!$A:$C,2, 0)</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="G649">
+        <f ca="1">VLOOKUP(A649+3+7, BB!$A:$C,3, 0) - VLOOKUP(A649+3, BB!$A:$C,3, 0)</f>
+        <v>6.5700000000000536E-2</v>
+      </c>
+      <c r="H649">
+        <f t="shared" ca="1" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="I649">
+        <f t="shared" ca="1" si="142"/>
+        <v>-1</v>
+      </c>
+      <c r="J649">
+        <f t="shared" ca="1" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="K649">
+        <f t="shared" ca="1" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="L649">
+        <f t="shared" ca="1" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="M649">
+        <f t="shared" ca="1" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <f t="shared" si="98"/>
+        <v>45814</v>
+      </c>
+      <c r="B650">
+        <v>1</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+      <c r="D650">
+        <v>1</v>
+      </c>
+      <c r="E650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A653" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32139,10 +32387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39422,6 +39670,55 @@
       <c r="E149">
         <v>-1</v>
       </c>
+      <c r="F149">
+        <f>VLOOKUP(EOMONTH(A149,1), BB!A:C, 2, 1)-VLOOKUP(A149, BB!A:C, 2, 1)</f>
+        <v>-0.18000000000000005</v>
+      </c>
+      <c r="G149">
+        <f>VLOOKUP(EOMONTH(A149,1), BB!A:C, 3, 1)-VLOOKUP(A149, BB!A:C, 3, 1)</f>
+        <v>0.23850000000000016</v>
+      </c>
+      <c r="H149">
+        <f t="shared" ref="H149" si="64">IF(F149&gt;0, -1, IF(F149&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <f t="shared" ref="I149" si="65">IF(G149&gt;0, -1, IF(G149&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J149">
+        <f t="shared" ref="J149" si="66">IF(B149=H149,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <f t="shared" ref="K149" si="67">IF(C149=I149,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <f t="shared" ref="L149" si="68">IF(D149=H149,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <f t="shared" ref="M149" si="69">IF(E149=I149,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B150">
+        <v>-1</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39432,11 +39729,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3222"/>
+  <dimension ref="A1:C3245"/>
   <sheetViews>
-    <sheetView topLeftCell="A3180" workbookViewId="0">
-      <selection activeCell="C3221" sqref="C3221"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -74890,6 +75185,259 @@
         <v>4.2694000000000001</v>
       </c>
     </row>
+    <row r="3223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3223" s="5">
+        <v>45785</v>
+      </c>
+      <c r="B3223" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3223" s="2">
+        <v>4.3784999999999998</v>
+      </c>
+    </row>
+    <row r="3224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3224" s="5">
+        <v>45786</v>
+      </c>
+      <c r="B3224" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C3224" s="2">
+        <v>4.3784999999999998</v>
+      </c>
+    </row>
+    <row r="3225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3225" s="5">
+        <v>45789</v>
+      </c>
+      <c r="B3225" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="C3225" s="2">
+        <v>4.4709000000000003</v>
+      </c>
+    </row>
+    <row r="3226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3226" s="5">
+        <v>45790</v>
+      </c>
+      <c r="B3226" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C3226" s="2">
+        <v>4.4649999999999999</v>
+      </c>
+    </row>
+    <row r="3227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3227" s="5">
+        <v>45791</v>
+      </c>
+      <c r="B3227" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C3227" s="2">
+        <v>4.5362999999999998</v>
+      </c>
+    </row>
+    <row r="3228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3228" s="5">
+        <v>45792</v>
+      </c>
+      <c r="B3228" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C3228" s="2">
+        <v>4.4314999999999998</v>
+      </c>
+    </row>
+    <row r="3229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3229" s="5">
+        <v>45793</v>
+      </c>
+      <c r="B3229" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C3229" s="2">
+        <v>4.4770000000000003</v>
+      </c>
+    </row>
+    <row r="3230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3230" s="5">
+        <v>45796</v>
+      </c>
+      <c r="B3230" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C3230" s="2">
+        <v>4.4474</v>
+      </c>
+    </row>
+    <row r="3231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3231" s="5">
+        <v>45797</v>
+      </c>
+      <c r="B3231" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3231" s="2">
+        <v>4.4869000000000003</v>
+      </c>
+    </row>
+    <row r="3232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3232" s="5">
+        <v>45798</v>
+      </c>
+      <c r="B3232" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C3232" s="2">
+        <v>4.5984999999999996</v>
+      </c>
+    </row>
+    <row r="3233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3233" s="5">
+        <v>45799</v>
+      </c>
+      <c r="B3233" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="C3233" s="2">
+        <v>4.5286999999999997</v>
+      </c>
+    </row>
+    <row r="3234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3234" s="5">
+        <v>45800</v>
+      </c>
+      <c r="B3234" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C3234" s="2">
+        <v>4.5110000000000001</v>
+      </c>
+    </row>
+    <row r="3235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3235" s="5">
+        <v>45803</v>
+      </c>
+      <c r="B3235" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C3235" s="2">
+        <v>4.5110000000000001</v>
+      </c>
+    </row>
+    <row r="3236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3236" s="5">
+        <v>45804</v>
+      </c>
+      <c r="B3236" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C3236" s="2">
+        <v>4.4436</v>
+      </c>
+    </row>
+    <row r="3237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3237" s="5">
+        <v>45805</v>
+      </c>
+      <c r="B3237" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3237" s="2">
+        <v>4.4772999999999996</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3238" s="5">
+        <v>45806</v>
+      </c>
+      <c r="B3238" s="2">
+        <v>0.89</v>
+      </c>
+      <c r="C3238" s="2">
+        <v>4.4180000000000001</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3239" s="5">
+        <v>45807</v>
+      </c>
+      <c r="B3239" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3239" s="2">
+        <v>4.4004000000000003</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3240" s="5">
+        <v>45810</v>
+      </c>
+      <c r="B3240" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3240" s="2">
+        <v>4.4398999999999997</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3241" s="5">
+        <v>45811</v>
+      </c>
+      <c r="B3241" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C3241" s="2">
+        <v>4.4537000000000004</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3242" s="5">
+        <v>45812</v>
+      </c>
+      <c r="B3242" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="C3242" s="2">
+        <v>4.3552</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3243" s="5">
+        <v>45813</v>
+      </c>
+      <c r="B3243" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="C3243" s="2">
+        <v>4.3906000000000001</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3244" s="5">
+        <v>45814</v>
+      </c>
+      <c r="B3244" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3244" s="2">
+        <v>4.5056000000000003</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3245" s="5">
+        <v>45817</v>
+      </c>
+      <c r="B3245" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3245" s="2">
+        <v>4.5056000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -519,9 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M653"/>
+  <dimension ref="A1:M654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
+      <selection activeCell="O635" sqref="O635:O636"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -30859,7 +30861,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A650" si="98">A619+7</f>
+        <f t="shared" ref="A620:A654" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -32326,11 +32328,11 @@
       </c>
       <c r="F649">
         <f ca="1">VLOOKUP(A649+3+7, BB!$A:$C,2, 0) - VLOOKUP(A649+3, BB!$A:$C,2, 0)</f>
-        <v>-3.0000000000000027E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="G649">
         <f ca="1">VLOOKUP(A649+3+7, BB!$A:$C,3, 0) - VLOOKUP(A649+3, BB!$A:$C,3, 0)</f>
-        <v>6.5700000000000536E-2</v>
+        <v>3.3900000000000041E-2</v>
       </c>
       <c r="H649">
         <f t="shared" ca="1" si="141"/>
@@ -32374,9 +32376,206 @@
       <c r="E650">
         <v>1</v>
       </c>
+      <c r="F650">
+        <f ca="1">VLOOKUP(A650+3+7, BB!$A:$C,2, 0) - VLOOKUP(A650+3, BB!$A:$C,2, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G650">
+        <f ca="1">VLOOKUP(A650+3+7, BB!$A:$C,3, 0) - VLOOKUP(A650+3, BB!$A:$C,3, 0)</f>
+        <v>-2.7599999999999625E-2</v>
+      </c>
+      <c r="H650">
+        <f t="shared" ref="H650:H653" ca="1" si="147">IF(F650&gt;0, -1, IF(F650&lt;0, 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="I650">
+        <f t="shared" ref="I650:I653" ca="1" si="148">IF(G650&gt;0, -1, IF(G650&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J650" t="str">
+        <f t="shared" ref="J650:J653" ca="1" si="149">IF(OR(H650=0, B650=0), "", IF(OR(AND(B650=1,H650=1), AND(B650=-1,H650=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="K650" t="str">
+        <f t="shared" ref="K650:K653" ca="1" si="150">IF(OR(H650=0, C650=0), "", IF(OR(AND(C650=1,H650=1), AND(C650=-1,H650=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="L650">
+        <f t="shared" ref="L650:L653" ca="1" si="151">IF(OR(I650=0, D650=0), "", IF(OR(AND(D650=1,I650=1), AND(D650=-1,I650=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M650">
+        <f t="shared" ref="M650:M653" ca="1" si="152">IF(OR(I650=0, E650=0), "", IF(OR(AND(E650=1,I650=1), AND(E650=-1,I650=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <f t="shared" si="98"/>
+        <v>45821</v>
+      </c>
+      <c r="B651">
+        <v>1</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
+      </c>
+      <c r="D651">
+        <v>1</v>
+      </c>
+      <c r="E651">
+        <v>1</v>
+      </c>
+      <c r="F651">
+        <f ca="1">VLOOKUP(A651+3+7, BB!$A:$C,2, 0) - VLOOKUP(A651+3, BB!$A:$C,2, 0)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G651">
+        <f ca="1">VLOOKUP(A651+3+7, BB!$A:$C,3, 0) - VLOOKUP(A651+3, BB!$A:$C,3, 0)</f>
+        <v>-9.870000000000001E-2</v>
+      </c>
+      <c r="H651">
+        <f t="shared" ca="1" si="147"/>
+        <v>-1</v>
+      </c>
+      <c r="I651">
+        <f t="shared" ca="1" si="148"/>
+        <v>1</v>
+      </c>
+      <c r="J651">
+        <f t="shared" ca="1" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="K651">
+        <f t="shared" ca="1" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="L651">
+        <f t="shared" ca="1" si="151"/>
+        <v>1</v>
+      </c>
+      <c r="M651">
+        <f t="shared" ca="1" si="152"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <f t="shared" si="98"/>
+        <v>45828</v>
+      </c>
+      <c r="B652">
+        <v>1</v>
+      </c>
+      <c r="C652">
+        <v>1</v>
+      </c>
+      <c r="D652">
+        <v>1</v>
+      </c>
+      <c r="E652">
+        <v>1</v>
+      </c>
+      <c r="F652">
+        <f ca="1">VLOOKUP(A652+3+7, BB!$A:$C,2, 0) - VLOOKUP(A652+3, BB!$A:$C,2, 0)</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="G652">
+        <f ca="1">VLOOKUP(A652+3+7, BB!$A:$C,3, 0) - VLOOKUP(A652+3, BB!$A:$C,3, 0)</f>
+        <v>-0.11950000000000038</v>
+      </c>
+      <c r="H652">
+        <f t="shared" ca="1" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="I652">
+        <f t="shared" ca="1" si="148"/>
+        <v>1</v>
+      </c>
+      <c r="J652">
+        <f t="shared" ca="1" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="K652">
+        <f t="shared" ca="1" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="L652">
+        <f t="shared" ca="1" si="151"/>
+        <v>1</v>
+      </c>
+      <c r="M652">
+        <f t="shared" ca="1" si="152"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="653" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A653" s="1"/>
+      <c r="A653" s="1">
+        <f t="shared" si="98"/>
+        <v>45835</v>
+      </c>
+      <c r="B653">
+        <v>1</v>
+      </c>
+      <c r="C653">
+        <v>1</v>
+      </c>
+      <c r="D653">
+        <v>1</v>
+      </c>
+      <c r="E653">
+        <v>1</v>
+      </c>
+      <c r="F653">
+        <f ca="1">VLOOKUP(A653+3+7, BB!$A:$C,2, 0) - VLOOKUP(A653+3, BB!$A:$C,2, 0)</f>
+        <v>-5.9999999999999942E-2</v>
+      </c>
+      <c r="G653">
+        <f ca="1">VLOOKUP(A653+3+7, BB!$A:$C,3, 0) - VLOOKUP(A653+3, BB!$A:$C,3, 0)</f>
+        <v>0.11770000000000014</v>
+      </c>
+      <c r="H653">
+        <f t="shared" ca="1" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="I653">
+        <f t="shared" ca="1" si="148"/>
+        <v>-1</v>
+      </c>
+      <c r="J653">
+        <f t="shared" ca="1" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="K653">
+        <f t="shared" ca="1" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="L653">
+        <f t="shared" ca="1" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="M653">
+        <f t="shared" ca="1" si="152"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <f t="shared" si="98"/>
+        <v>45842</v>
+      </c>
+      <c r="B654">
+        <v>-1</v>
+      </c>
+      <c r="C654">
+        <v>0</v>
+      </c>
+      <c r="D654">
+        <v>1</v>
+      </c>
+      <c r="E654">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32387,10 +32586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D150" sqref="D150"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="M150" sqref="M150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39719,6 +39918,55 @@
       <c r="E150">
         <v>-1</v>
       </c>
+      <c r="F150">
+        <f>VLOOKUP(EOMONTH(A150,1), BB!A:C, 2, 1)-VLOOKUP(A150, BB!A:C, 2, 1)</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="G150">
+        <f>VLOOKUP(EOMONTH(A150,1), BB!A:C, 3, 1)-VLOOKUP(A150, BB!A:C, 3, 1)</f>
+        <v>-0.17240000000000055</v>
+      </c>
+      <c r="H150">
+        <f t="shared" ref="H150" si="70">IF(F150&gt;0, -1, IF(F150&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <f t="shared" ref="I150" si="71">IF(G150&gt;0, -1, IF(G150&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <f t="shared" ref="J150" si="72">IF(B150=H150,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <f t="shared" ref="K150" si="73">IF(C150=I150,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <f t="shared" ref="L150" si="74">IF(D150=H150,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <f t="shared" ref="M150" si="75">IF(E150=I150,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B151">
+        <v>-1</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39729,9 +39977,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3245"/>
+  <dimension ref="A1:C3265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3220" workbookViewId="0">
+      <selection activeCell="B3263" sqref="B3263"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -75432,10 +75682,230 @@
         <v>45817</v>
       </c>
       <c r="B3245" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3245" s="2">
+        <v>4.4737999999999998</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3246" s="5">
+        <v>45818</v>
+      </c>
+      <c r="B3246" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3246" s="2">
+        <v>4.4698000000000002</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3247" s="5">
+        <v>45819</v>
+      </c>
+      <c r="B3247" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3247" s="2">
+        <v>4.4203000000000001</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3248" s="5">
+        <v>45820</v>
+      </c>
+      <c r="B3248" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3248" s="2">
+        <v>4.3592000000000004</v>
+      </c>
+    </row>
+    <row r="3249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3249" s="5">
+        <v>45821</v>
+      </c>
+      <c r="B3249" s="2">
         <v>0.85</v>
       </c>
-      <c r="C3245" s="2">
-        <v>4.5056000000000003</v>
+      <c r="C3249" s="2">
+        <v>4.3986999999999998</v>
+      </c>
+    </row>
+    <row r="3250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3250" s="5">
+        <v>45824</v>
+      </c>
+      <c r="B3250" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3250" s="2">
+        <v>4.4462000000000002</v>
+      </c>
+    </row>
+    <row r="3251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3251" s="5">
+        <v>45825</v>
+      </c>
+      <c r="B3251" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3251" s="2">
+        <v>4.3887999999999998</v>
+      </c>
+    </row>
+    <row r="3252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3252" s="5">
+        <v>45826</v>
+      </c>
+      <c r="B3252" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3252" s="2">
+        <v>4.3909000000000002</v>
+      </c>
+    </row>
+    <row r="3253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3253" s="5">
+        <v>45827</v>
+      </c>
+      <c r="B3253" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3253" s="2">
+        <v>4.3909000000000002</v>
+      </c>
+    </row>
+    <row r="3254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3254" s="5">
+        <v>45828</v>
+      </c>
+      <c r="B3254" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3254" s="2">
+        <v>4.3750999999999998</v>
+      </c>
+    </row>
+    <row r="3255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3255" s="5">
+        <v>45831</v>
+      </c>
+      <c r="B3255" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C3255" s="2">
+        <v>4.3475000000000001</v>
+      </c>
+    </row>
+    <row r="3256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3256" s="5">
+        <v>45832</v>
+      </c>
+      <c r="B3256" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="C3256" s="2">
+        <v>4.2945000000000002</v>
+      </c>
+    </row>
+    <row r="3257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3257" s="5">
+        <v>45833</v>
+      </c>
+      <c r="B3257" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C3257" s="2">
+        <v>4.2906000000000004</v>
+      </c>
+    </row>
+    <row r="3258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3258" s="5">
+        <v>45834</v>
+      </c>
+      <c r="B3258" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="C3258" s="2">
+        <v>4.2416999999999998</v>
+      </c>
+    </row>
+    <row r="3259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3259" s="5">
+        <v>45835</v>
+      </c>
+      <c r="B3259" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C3259" s="2">
+        <v>4.2769000000000004</v>
+      </c>
+    </row>
+    <row r="3260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3260" s="5">
+        <v>45838</v>
+      </c>
+      <c r="B3260" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="C3260" s="2">
+        <v>4.2279999999999998</v>
+      </c>
+    </row>
+    <row r="3261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3261" s="5">
+        <v>45839</v>
+      </c>
+      <c r="B3261" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="C3261" s="2">
+        <v>4.2416</v>
+      </c>
+    </row>
+    <row r="3262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3262" s="5">
+        <v>45840</v>
+      </c>
+      <c r="B3262" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3262" s="2">
+        <v>4.2769000000000004</v>
+      </c>
+    </row>
+    <row r="3263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3263" s="5">
+        <v>45841</v>
+      </c>
+      <c r="B3263" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3263" s="2">
+        <v>4.3456999999999999</v>
+      </c>
+    </row>
+    <row r="3264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3264" s="5">
+        <v>45842</v>
+      </c>
+      <c r="B3264" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3264" s="2">
+        <v>4.3456999999999999</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3265" s="5">
+        <v>45845</v>
+      </c>
+      <c r="B3265" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3265" s="2">
+        <v>4.3456999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E01EE-40A1-454C-A0C7-F6935F644433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -36,10 +37,21 @@
     <definedName name="TreeMap">"TreeMap"</definedName>
     <definedName name="Waterfall">"Waterfall"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -152,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -219,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,10 +250,13 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,11 +533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M654"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" workbookViewId="0">
-      <selection activeCell="O635" sqref="O635:O636"/>
+    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
+      <selection activeCell="C664" sqref="C664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30861,7 +30876,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A654" si="98">A619+7</f>
+        <f t="shared" ref="A620:A659" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -32528,11 +32543,11 @@
       </c>
       <c r="F653">
         <f ca="1">VLOOKUP(A653+3+7, BB!$A:$C,2, 0) - VLOOKUP(A653+3, BB!$A:$C,2, 0)</f>
-        <v>-5.9999999999999942E-2</v>
+        <v>-3.9999999999999925E-2</v>
       </c>
       <c r="G653">
         <f ca="1">VLOOKUP(A653+3+7, BB!$A:$C,3, 0) - VLOOKUP(A653+3, BB!$A:$C,3, 0)</f>
-        <v>0.11770000000000014</v>
+        <v>0.15140000000000065</v>
       </c>
       <c r="H653">
         <f t="shared" ca="1" si="147"/>
@@ -32574,6 +32589,256 @@
         <v>1</v>
       </c>
       <c r="E654">
+        <v>1</v>
+      </c>
+      <c r="F654">
+        <f ca="1">VLOOKUP(A654+3+7, BB!$A:$C,2, 0) - VLOOKUP(A654+3, BB!$A:$C,2, 0)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G654">
+        <f ca="1">VLOOKUP(A654+3+7, BB!$A:$C,3, 0) - VLOOKUP(A654+3, BB!$A:$C,3, 0)</f>
+        <v>5.3899999999999615E-2</v>
+      </c>
+      <c r="H654">
+        <f t="shared" ref="H654:H658" ca="1" si="153">IF(F654&gt;0, -1, IF(F654&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I654">
+        <f t="shared" ref="I654:I658" ca="1" si="154">IF(G654&gt;0, -1, IF(G654&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J654">
+        <f t="shared" ref="J654:J658" ca="1" si="155">IF(OR(H654=0, B654=0), "", IF(OR(AND(B654=1,H654=1), AND(B654=-1,H654=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K654" t="str">
+        <f t="shared" ref="K654:K658" ca="1" si="156">IF(OR(H654=0, C654=0), "", IF(OR(AND(C654=1,H654=1), AND(C654=-1,H654=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="L654">
+        <f t="shared" ref="L654:L658" ca="1" si="157">IF(OR(I654=0, D654=0), "", IF(OR(AND(D654=1,I654=1), AND(D654=-1,I654=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M654">
+        <f t="shared" ref="M654:M658" ca="1" si="158">IF(OR(I654=0, E654=0), "", IF(OR(AND(E654=1,I654=1), AND(E654=-1,I654=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <f t="shared" si="98"/>
+        <v>45849</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+      <c r="C655">
+        <v>0</v>
+      </c>
+      <c r="D655">
+        <v>1</v>
+      </c>
+      <c r="E655">
+        <v>1</v>
+      </c>
+      <c r="F655">
+        <f ca="1">VLOOKUP(A655+3+7, BB!$A:$C,2, 0) - VLOOKUP(A655+3, BB!$A:$C,2, 0)</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G655">
+        <f ca="1">VLOOKUP(A655+3+7, BB!$A:$C,3, 0) - VLOOKUP(A655+3, BB!$A:$C,3, 0)</f>
+        <v>-5.5600000000000094E-2</v>
+      </c>
+      <c r="H655">
+        <f t="shared" ca="1" si="153"/>
+        <v>1</v>
+      </c>
+      <c r="I655">
+        <f t="shared" ca="1" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="J655" t="str">
+        <f t="shared" ca="1" si="155"/>
+        <v/>
+      </c>
+      <c r="K655" t="str">
+        <f t="shared" ca="1" si="156"/>
+        <v/>
+      </c>
+      <c r="L655">
+        <f t="shared" ca="1" si="157"/>
+        <v>1</v>
+      </c>
+      <c r="M655">
+        <f t="shared" ca="1" si="158"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <f t="shared" si="98"/>
+        <v>45856</v>
+      </c>
+      <c r="B656">
+        <v>-1</v>
+      </c>
+      <c r="C656">
+        <v>0</v>
+      </c>
+      <c r="D656">
+        <v>1</v>
+      </c>
+      <c r="E656">
+        <v>1</v>
+      </c>
+      <c r="F656">
+        <f ca="1">VLOOKUP(A656+3+7, BB!$A:$C,2, 0) - VLOOKUP(A656+3, BB!$A:$C,2, 0)</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G656">
+        <f ca="1">VLOOKUP(A656+3+7, BB!$A:$C,3, 0) - VLOOKUP(A656+3, BB!$A:$C,3, 0)</f>
+        <v>3.2099999999999795E-2</v>
+      </c>
+      <c r="H656">
+        <f t="shared" ca="1" si="153"/>
+        <v>1</v>
+      </c>
+      <c r="I656">
+        <f t="shared" ca="1" si="154"/>
+        <v>-1</v>
+      </c>
+      <c r="J656">
+        <f t="shared" ca="1" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="K656" t="str">
+        <f t="shared" ca="1" si="156"/>
+        <v/>
+      </c>
+      <c r="L656">
+        <f t="shared" ca="1" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="M656">
+        <f t="shared" ca="1" si="158"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <f t="shared" si="98"/>
+        <v>45863</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+      <c r="C657">
+        <v>0</v>
+      </c>
+      <c r="D657">
+        <v>1</v>
+      </c>
+      <c r="E657">
+        <v>1</v>
+      </c>
+      <c r="F657">
+        <f ca="1">VLOOKUP(A657+3+7, BB!$A:$C,2, 0) - VLOOKUP(A657+3, BB!$A:$C,2, 0)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G657">
+        <f ca="1">VLOOKUP(A657+3+7, BB!$A:$C,3, 0) - VLOOKUP(A657+3, BB!$A:$C,3, 0)</f>
+        <v>-0.21749999999999936</v>
+      </c>
+      <c r="H657">
+        <f t="shared" ca="1" si="153"/>
+        <v>-1</v>
+      </c>
+      <c r="I657">
+        <f t="shared" ca="1" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="J657" t="str">
+        <f t="shared" ca="1" si="155"/>
+        <v/>
+      </c>
+      <c r="K657" t="str">
+        <f t="shared" ca="1" si="156"/>
+        <v/>
+      </c>
+      <c r="L657">
+        <f t="shared" ca="1" si="157"/>
+        <v>1</v>
+      </c>
+      <c r="M657">
+        <f t="shared" ca="1" si="158"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <f t="shared" si="98"/>
+        <v>45870</v>
+      </c>
+      <c r="B658">
+        <v>1</v>
+      </c>
+      <c r="C658">
+        <v>0</v>
+      </c>
+      <c r="D658">
+        <v>-1</v>
+      </c>
+      <c r="E658">
+        <v>-1</v>
+      </c>
+      <c r="F658">
+        <f ca="1">VLOOKUP(A658+3+7, BB!$A:$C,2, 0) - VLOOKUP(A658+3, BB!$A:$C,2, 0)</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G658">
+        <f ca="1">VLOOKUP(A658+3+7, BB!$A:$C,3, 0) - VLOOKUP(A658+3, BB!$A:$C,3, 0)</f>
+        <v>9.0599999999999348E-2</v>
+      </c>
+      <c r="H658">
+        <f t="shared" ca="1" si="153"/>
+        <v>1</v>
+      </c>
+      <c r="I658">
+        <f t="shared" ca="1" si="154"/>
+        <v>-1</v>
+      </c>
+      <c r="J658">
+        <f t="shared" ca="1" si="155"/>
+        <v>1</v>
+      </c>
+      <c r="K658" t="str">
+        <f t="shared" ca="1" si="156"/>
+        <v/>
+      </c>
+      <c r="L658">
+        <f t="shared" ca="1" si="157"/>
+        <v>1</v>
+      </c>
+      <c r="M658">
+        <f t="shared" ca="1" si="158"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <f t="shared" si="98"/>
+        <v>45877</v>
+      </c>
+      <c r="B659">
+        <v>1</v>
+      </c>
+      <c r="C659">
+        <v>0</v>
+      </c>
+      <c r="D659">
+        <v>-1</v>
+      </c>
+      <c r="E659">
         <v>1</v>
       </c>
     </row>
@@ -32585,11 +32850,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="M150" sqref="M150"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39967,6 +40232,55 @@
       <c r="E151">
         <v>-1</v>
       </c>
+      <c r="F151">
+        <f>VLOOKUP(EOMONTH(A151,1), BB!A:C, 2, 1)-VLOOKUP(A151, BB!A:C, 2, 1)</f>
+        <v>-6.9999999999999951E-2</v>
+      </c>
+      <c r="G151">
+        <f>VLOOKUP(EOMONTH(A151,1), BB!A:C, 3, 1)-VLOOKUP(A151, BB!A:C, 3, 1)</f>
+        <v>0.14599999999999991</v>
+      </c>
+      <c r="H151">
+        <f t="shared" ref="H151" si="76">IF(F151&gt;0, -1, IF(F151&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <f t="shared" ref="I151" si="77">IF(G151&gt;0, -1, IF(G151&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J151">
+        <f t="shared" ref="J151" si="78">IF(B151=H151,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <f t="shared" ref="K151" si="79">IF(C151=I151,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <f t="shared" ref="L151" si="80">IF(D151=H151,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <f t="shared" ref="M151" si="81">IF(E151=I151,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -39976,11 +40290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C3290"/>
   <sheetViews>
-    <sheetView topLeftCell="A3220" workbookViewId="0">
-      <selection activeCell="B3263" sqref="B3263"/>
+    <sheetView topLeftCell="A3256" workbookViewId="0">
+      <selection activeCell="D3290" sqref="D3290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -75902,10 +76216,285 @@
         <v>45845</v>
       </c>
       <c r="B3265" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3265" s="2">
+        <v>4.3794000000000004</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3266" s="5">
+        <v>45846</v>
+      </c>
+      <c r="B3266" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3266" s="2">
+        <v>4.3992000000000004</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3267" s="5">
+        <v>45847</v>
+      </c>
+      <c r="B3267" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="C3267" s="2">
+        <v>4.3319999999999999</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3268" s="5">
+        <v>45848</v>
+      </c>
+      <c r="B3268" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3268" s="2">
+        <v>4.3498000000000001</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3269" s="5">
+        <v>45849</v>
+      </c>
+      <c r="B3269" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3269" s="2">
+        <v>4.4093</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3270" s="5">
+        <v>45852</v>
+      </c>
+      <c r="B3270" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3270" s="2">
+        <v>4.4333</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3271" s="5">
+        <v>45853</v>
+      </c>
+      <c r="B3271" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3271" s="2">
+        <v>4.4813000000000001</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3272" s="5">
+        <v>45854</v>
+      </c>
+      <c r="B3272" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3272" s="2">
+        <v>4.4553000000000003</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3273" s="5">
+        <v>45855</v>
+      </c>
+      <c r="B3273" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3273" s="2">
+        <v>4.4512999999999998</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3274" s="5">
+        <v>45856</v>
+      </c>
+      <c r="B3274" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3265" s="2">
-        <v>4.3456999999999999</v>
+      <c r="C3274" s="2">
+        <v>4.4154999999999998</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3275" s="5">
+        <v>45859</v>
+      </c>
+      <c r="B3275" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3275" s="2">
+        <v>4.3776999999999999</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3276" s="5">
+        <v>45860</v>
+      </c>
+      <c r="B3276" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3276" s="2">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3277" s="5">
+        <v>45861</v>
+      </c>
+      <c r="B3277" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3277" s="2">
+        <v>4.3798000000000004</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3278" s="5">
+        <v>45862</v>
+      </c>
+      <c r="B3278" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3278" s="2">
+        <v>4.3956999999999997</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3279" s="5">
+        <v>45863</v>
+      </c>
+      <c r="B3279" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3279" s="2">
+        <v>4.3878000000000004</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3280" s="5">
+        <v>45866</v>
+      </c>
+      <c r="B3280" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3280" s="2">
+        <v>4.4097999999999997</v>
+      </c>
+    </row>
+    <row r="3281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3281" s="5">
+        <v>45867</v>
+      </c>
+      <c r="B3281" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="C3281" s="2">
+        <v>4.3204000000000002</v>
+      </c>
+    </row>
+    <row r="3282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3282" s="5">
+        <v>45868</v>
+      </c>
+      <c r="B3282" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3282" s="2">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="3283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3283" s="5">
+        <v>45869</v>
+      </c>
+      <c r="B3283" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="C3283" s="2">
+        <v>4.3739999999999997</v>
+      </c>
+    </row>
+    <row r="3284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3284" s="5">
+        <v>45870</v>
+      </c>
+      <c r="B3284" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3284" s="2">
+        <v>4.2159000000000004</v>
+      </c>
+    </row>
+    <row r="3285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3285" s="5">
+        <v>45873</v>
+      </c>
+      <c r="B3285" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3285" s="2">
+        <v>4.1923000000000004</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3286" s="5">
+        <v>45874</v>
+      </c>
+      <c r="B3286" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C3286" s="2">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="3287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3287" s="5">
+        <v>45875</v>
+      </c>
+      <c r="B3287" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3287" s="2">
+        <v>4.2256999999999998</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3288" s="5">
+        <v>45876</v>
+      </c>
+      <c r="B3288" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3288" s="2">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3289" s="5">
+        <v>45877</v>
+      </c>
+      <c r="B3289" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3289" s="2">
+        <v>4.2828999999999997</v>
+      </c>
+    </row>
+    <row r="3290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3290" s="6">
+        <v>45880</v>
+      </c>
+      <c r="B3290" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3290" s="2">
+        <v>4.2828999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569E01EE-40A1-454C-A0C7-F6935F644433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86AA27-1221-4318-A253-BDFF3C5F26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,15 +223,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -250,13 +253,26 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2 2" xfId="2" xr:uid="{6B539C17-68E2-421C-849E-C20FFA5FF0B9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M659"/>
+  <dimension ref="A1:M664"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A629" workbookViewId="0">
-      <selection activeCell="C664" sqref="C664"/>
+    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
+      <selection activeCell="A673" sqref="A673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30876,7 +30892,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A659" si="98">A619+7</f>
+        <f t="shared" ref="A620:A664" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -32797,7 +32813,7 @@
       </c>
       <c r="G658">
         <f ca="1">VLOOKUP(A658+3+7, BB!$A:$C,3, 0) - VLOOKUP(A658+3, BB!$A:$C,3, 0)</f>
-        <v>9.0599999999999348E-2</v>
+        <v>9.2600000000000016E-2</v>
       </c>
       <c r="H658">
         <f t="shared" ca="1" si="153"/>
@@ -32841,6 +32857,211 @@
       <c r="E659">
         <v>1</v>
       </c>
+      <c r="F659" s="6">
+        <f ca="1">VLOOKUP(A659+3+7, BB!$A:$C,2, 0) - VLOOKUP(A659+3, BB!$A:$C,2, 0)</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="G659" s="6">
+        <f ca="1">VLOOKUP(A659+3+7, BB!$A:$C,3, 0) - VLOOKUP(A659+3, BB!$A:$C,3, 0)</f>
+        <v>4.8599999999999532E-2</v>
+      </c>
+      <c r="H659" s="6">
+        <f t="shared" ref="H659:H662" ca="1" si="159">IF(F659&gt;0, -1, IF(F659&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I659" s="6">
+        <f t="shared" ref="I659:I662" ca="1" si="160">IF(G659&gt;0, -1, IF(G659&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J659" s="6">
+        <f t="shared" ref="J659:J662" ca="1" si="161">IF(OR(H659=0, B659=0), "", IF(OR(AND(B659=1,H659=1), AND(B659=-1,H659=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K659" s="6" t="str">
+        <f t="shared" ref="K659:K662" ca="1" si="162">IF(OR(H659=0, C659=0), "", IF(OR(AND(C659=1,H659=1), AND(C659=-1,H659=-1)), 1, 0))</f>
+        <v/>
+      </c>
+      <c r="L659" s="6">
+        <f t="shared" ref="L659:L662" ca="1" si="163">IF(OR(I659=0, D659=0), "", IF(OR(AND(D659=1,I659=1), AND(D659=-1,I659=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="M659" s="6">
+        <f t="shared" ref="M659:M662" ca="1" si="164">IF(OR(I659=0, E659=0), "", IF(OR(AND(E659=1,I659=1), AND(E659=-1,I659=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A660" s="7">
+        <f t="shared" si="98"/>
+        <v>45884</v>
+      </c>
+      <c r="B660">
+        <v>-1</v>
+      </c>
+      <c r="C660">
+        <v>0</v>
+      </c>
+      <c r="D660">
+        <v>1</v>
+      </c>
+      <c r="E660">
+        <v>1</v>
+      </c>
+      <c r="F660" s="6">
+        <f ca="1">VLOOKUP(A660+3+7, BB!$A:$C,2, 0) - VLOOKUP(A660+3, BB!$A:$C,2, 0)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="G660" s="6">
+        <f ca="1">VLOOKUP(A660+3+7, BB!$A:$C,3, 0) - VLOOKUP(A660+3, BB!$A:$C,3, 0)</f>
+        <v>-5.8399999999999785E-2</v>
+      </c>
+      <c r="H660" s="6">
+        <f t="shared" ca="1" si="159"/>
+        <v>-1</v>
+      </c>
+      <c r="I660" s="6">
+        <f t="shared" ca="1" si="160"/>
+        <v>1</v>
+      </c>
+      <c r="J660" s="6">
+        <f t="shared" ca="1" si="161"/>
+        <v>1</v>
+      </c>
+      <c r="K660" s="6" t="str">
+        <f t="shared" ca="1" si="162"/>
+        <v/>
+      </c>
+      <c r="L660" s="6">
+        <f t="shared" ca="1" si="163"/>
+        <v>1</v>
+      </c>
+      <c r="M660" s="6">
+        <f t="shared" ca="1" si="164"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A661" s="7">
+        <f t="shared" si="98"/>
+        <v>45891</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+      <c r="C661">
+        <v>0</v>
+      </c>
+      <c r="D661">
+        <v>-1</v>
+      </c>
+      <c r="E661">
+        <v>1</v>
+      </c>
+      <c r="F661" s="6">
+        <f ca="1">VLOOKUP(A661+3+7, BB!$A:$C,2, 0) - VLOOKUP(A661+3, BB!$A:$C,2, 0)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="G661" s="6">
+        <f ca="1">VLOOKUP(A661+3+7, BB!$A:$C,3, 0) - VLOOKUP(A661+3, BB!$A:$C,3, 0)</f>
+        <v>-4.6700000000000408E-2</v>
+      </c>
+      <c r="H661" s="6">
+        <f t="shared" ca="1" si="159"/>
+        <v>-1</v>
+      </c>
+      <c r="I661" s="6">
+        <f t="shared" ca="1" si="160"/>
+        <v>1</v>
+      </c>
+      <c r="J661" s="6" t="str">
+        <f t="shared" ca="1" si="161"/>
+        <v/>
+      </c>
+      <c r="K661" s="6" t="str">
+        <f t="shared" ca="1" si="162"/>
+        <v/>
+      </c>
+      <c r="L661" s="6">
+        <f t="shared" ca="1" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="M661" s="6">
+        <f t="shared" ca="1" si="164"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A662" s="7">
+        <f t="shared" si="98"/>
+        <v>45898</v>
+      </c>
+      <c r="B662">
+        <v>1</v>
+      </c>
+      <c r="C662">
+        <v>0</v>
+      </c>
+      <c r="D662">
+        <v>-1</v>
+      </c>
+      <c r="E662">
+        <v>1</v>
+      </c>
+      <c r="F662" s="6">
+        <f ca="1">VLOOKUP(A662+3+7, BB!$A:$C,2, 0) - VLOOKUP(A662+3, BB!$A:$C,2, 0)</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="G662" s="6">
+        <f ca="1">VLOOKUP(A662+3+7, BB!$A:$C,3, 0) - VLOOKUP(A662+3, BB!$A:$C,3, 0)</f>
+        <v>-0.15419999999999945</v>
+      </c>
+      <c r="H662" s="6">
+        <f t="shared" ca="1" si="159"/>
+        <v>1</v>
+      </c>
+      <c r="I662" s="6">
+        <f t="shared" ca="1" si="160"/>
+        <v>1</v>
+      </c>
+      <c r="J662" s="6">
+        <f t="shared" ca="1" si="161"/>
+        <v>1</v>
+      </c>
+      <c r="K662" s="6" t="str">
+        <f t="shared" ca="1" si="162"/>
+        <v/>
+      </c>
+      <c r="L662" s="6">
+        <f t="shared" ca="1" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="M662" s="6">
+        <f t="shared" ca="1" si="164"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A663" s="7">
+        <f t="shared" si="98"/>
+        <v>45905</v>
+      </c>
+      <c r="B663">
+        <v>-1</v>
+      </c>
+      <c r="C663">
+        <v>-1</v>
+      </c>
+      <c r="D663">
+        <v>-1</v>
+      </c>
+      <c r="E663">
+        <v>1</v>
+      </c>
+      <c r="F663" s="6"/>
+      <c r="G663" s="6"/>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A664" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -32851,10 +33072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40281,6 +40502,55 @@
       <c r="E152">
         <v>-1</v>
       </c>
+      <c r="F152" s="6">
+        <f>VLOOKUP(EOMONTH(A152,1), BB!A:C, 2, 1)-VLOOKUP(A152, BB!A:C, 2, 1)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="G152" s="6">
+        <f>VLOOKUP(EOMONTH(A152,1), BB!A:C, 3, 1)-VLOOKUP(A152, BB!A:C, 3, 1)</f>
+        <v>-0.14559999999999995</v>
+      </c>
+      <c r="H152" s="6">
+        <f t="shared" ref="H152" si="82">IF(F152&gt;0, -1, IF(F152&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I152" s="6">
+        <f t="shared" ref="I152" si="83">IF(G152&gt;0, -1, IF(G152&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J152" s="6">
+        <f t="shared" ref="J152" si="84">IF(B152=H152,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K152" s="6">
+        <f t="shared" ref="K152" si="85">IF(C152=I152,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L152" s="6">
+        <f t="shared" ref="L152" si="86">IF(D152=H152,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M152" s="6">
+        <f t="shared" ref="M152" si="87">IF(E152=I152,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
+        <v>45900</v>
+      </c>
+      <c r="B153">
+        <v>-1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -40291,10 +40561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3290"/>
+  <dimension ref="A1:C3310"/>
   <sheetViews>
-    <sheetView topLeftCell="A3256" workbookViewId="0">
-      <selection activeCell="D3290" sqref="D3290"/>
+    <sheetView topLeftCell="A3271" workbookViewId="0">
+      <selection activeCell="C3310" sqref="C3310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -76476,25 +76746,245 @@
       </c>
     </row>
     <row r="3289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3289" s="5">
+      <c r="A3289" s="10">
         <v>45877</v>
       </c>
-      <c r="B3289" s="2">
+      <c r="B3289" s="8">
         <v>0.78</v>
       </c>
-      <c r="C3289" s="2">
+      <c r="C3289" s="8">
         <v>4.2828999999999997</v>
       </c>
     </row>
     <row r="3290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3290" s="6">
+      <c r="A3290" s="10">
         <v>45880</v>
       </c>
-      <c r="B3290" s="2">
+      <c r="B3290" s="8">
         <v>0.78</v>
       </c>
-      <c r="C3290" s="2">
-        <v>4.2828999999999997</v>
+      <c r="C3290" s="8">
+        <v>4.2849000000000004</v>
+      </c>
+    </row>
+    <row r="3291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3291" s="10">
+        <v>45881</v>
+      </c>
+      <c r="B3291" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3291" s="8">
+        <v>4.2888000000000002</v>
+      </c>
+    </row>
+    <row r="3292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3292" s="10">
+        <v>45882</v>
+      </c>
+      <c r="B3292" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="C3292" s="8">
+        <v>4.2325999999999997</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3293" s="10">
+        <v>45883</v>
+      </c>
+      <c r="B3293" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C3293" s="8">
+        <v>4.2849000000000004</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3294" s="10">
+        <v>45884</v>
+      </c>
+      <c r="B3294" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="C3294" s="8">
+        <v>4.3159999999999998</v>
+      </c>
+    </row>
+    <row r="3295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3295" s="10">
+        <v>45887</v>
+      </c>
+      <c r="B3295" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="C3295" s="8">
+        <v>4.3334999999999999</v>
+      </c>
+    </row>
+    <row r="3296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3296" s="10">
+        <v>45888</v>
+      </c>
+      <c r="B3296" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C3296" s="8">
+        <v>4.3061999999999996</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3297" s="10">
+        <v>45889</v>
+      </c>
+      <c r="B3297" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="C3297" s="8">
+        <v>4.2907000000000002</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3298" s="10">
+        <v>45890</v>
+      </c>
+      <c r="B3298" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="C3298" s="8">
+        <v>4.3277000000000001</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3299" s="10">
+        <v>45891</v>
+      </c>
+      <c r="B3299" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C3299" s="8">
+        <v>4.2537000000000003</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3300" s="10">
+        <v>45894</v>
+      </c>
+      <c r="B3300" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C3300" s="8">
+        <v>4.2751000000000001</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3301" s="10">
+        <v>45895</v>
+      </c>
+      <c r="B3301" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="C3301" s="8">
+        <v>4.2614999999999998</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3302" s="10">
+        <v>45896</v>
+      </c>
+      <c r="B3302" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3302" s="8">
+        <v>4.2343000000000002</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3303" s="10">
+        <v>45897</v>
+      </c>
+      <c r="B3303" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3303" s="8">
+        <v>4.2032999999999996</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3304" s="10">
+        <v>45898</v>
+      </c>
+      <c r="B3304" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="C3304" s="8">
+        <v>4.2283999999999997</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3305" s="10">
+        <v>45901</v>
+      </c>
+      <c r="B3305" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="C3305" s="8">
+        <v>4.2283999999999997</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3306" s="10">
+        <v>45902</v>
+      </c>
+      <c r="B3306" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C3306" s="8">
+        <v>4.2614000000000001</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3307" s="10">
+        <v>45903</v>
+      </c>
+      <c r="B3307" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="C3307" s="8">
+        <v>4.2168000000000001</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3308" s="10">
+        <v>45904</v>
+      </c>
+      <c r="B3308" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3308" s="8">
+        <v>4.1607000000000003</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3309" s="10">
+        <v>45905</v>
+      </c>
+      <c r="B3309" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3309" s="8">
+        <v>4.0742000000000003</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3310" s="9">
+        <v>45908</v>
+      </c>
+      <c r="B3310" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="C3310" s="8">
+        <v>4.0742000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -76502,4 +76992,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{3466d8de-a423-4c2e-b2dc-846f22c52444}" enabled="1" method="Standard" siteId="{60ed981f-ef6e-4603-9f81-ed6b34713134}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/data/streamlit_24_signal.xlsx
+++ b/data/streamlit_24_signal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86AA27-1221-4318-A253-BDFF3C5F26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E3B487-32C9-490A-BA5D-DE6DB71B810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,19 +253,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M664"/>
+  <dimension ref="A1:M668"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="A673" sqref="A673"/>
+    <sheetView topLeftCell="A636" workbookViewId="0">
+      <selection activeCell="F665" sqref="F665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -30892,7 +30880,7 @@
     </row>
     <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
-        <f t="shared" ref="A620:A664" si="98">A619+7</f>
+        <f t="shared" ref="A620:A668" si="98">A619+7</f>
         <v>45604</v>
       </c>
       <c r="B620">
@@ -32857,41 +32845,41 @@
       <c r="E659">
         <v>1</v>
       </c>
-      <c r="F659" s="6">
+      <c r="F659">
         <f ca="1">VLOOKUP(A659+3+7, BB!$A:$C,2, 0) - VLOOKUP(A659+3, BB!$A:$C,2, 0)</f>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="G659" s="6">
+      <c r="G659">
         <f ca="1">VLOOKUP(A659+3+7, BB!$A:$C,3, 0) - VLOOKUP(A659+3, BB!$A:$C,3, 0)</f>
         <v>4.8599999999999532E-2</v>
       </c>
-      <c r="H659" s="6">
+      <c r="H659">
         <f t="shared" ref="H659:H662" ca="1" si="159">IF(F659&gt;0, -1, IF(F659&lt;0, 1, 0))</f>
         <v>1</v>
       </c>
-      <c r="I659" s="6">
+      <c r="I659">
         <f t="shared" ref="I659:I662" ca="1" si="160">IF(G659&gt;0, -1, IF(G659&lt;0, 1, 0))</f>
         <v>-1</v>
       </c>
-      <c r="J659" s="6">
+      <c r="J659">
         <f t="shared" ref="J659:J662" ca="1" si="161">IF(OR(H659=0, B659=0), "", IF(OR(AND(B659=1,H659=1), AND(B659=-1,H659=-1)), 1, 0))</f>
         <v>1</v>
       </c>
-      <c r="K659" s="6" t="str">
+      <c r="K659" t="str">
         <f t="shared" ref="K659:K662" ca="1" si="162">IF(OR(H659=0, C659=0), "", IF(OR(AND(C659=1,H659=1), AND(C659=-1,H659=-1)), 1, 0))</f>
         <v/>
       </c>
-      <c r="L659" s="6">
+      <c r="L659">
         <f t="shared" ref="L659:L662" ca="1" si="163">IF(OR(I659=0, D659=0), "", IF(OR(AND(D659=1,I659=1), AND(D659=-1,I659=-1)), 1, 0))</f>
         <v>1</v>
       </c>
-      <c r="M659" s="6">
+      <c r="M659">
         <f t="shared" ref="M659:M662" ca="1" si="164">IF(OR(I659=0, E659=0), "", IF(OR(AND(E659=1,I659=1), AND(E659=-1,I659=-1)), 1, 0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A660" s="7">
+      <c r="A660" s="1">
         <f t="shared" si="98"/>
         <v>45884</v>
       </c>
@@ -32907,41 +32895,41 @@
       <c r="E660">
         <v>1</v>
       </c>
-      <c r="F660" s="6">
+      <c r="F660">
         <f ca="1">VLOOKUP(A660+3+7, BB!$A:$C,2, 0) - VLOOKUP(A660+3, BB!$A:$C,2, 0)</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="G660" s="6">
+      <c r="G660">
         <f ca="1">VLOOKUP(A660+3+7, BB!$A:$C,3, 0) - VLOOKUP(A660+3, BB!$A:$C,3, 0)</f>
         <v>-5.8399999999999785E-2</v>
       </c>
-      <c r="H660" s="6">
+      <c r="H660">
         <f t="shared" ca="1" si="159"/>
         <v>-1</v>
       </c>
-      <c r="I660" s="6">
+      <c r="I660">
         <f t="shared" ca="1" si="160"/>
         <v>1</v>
       </c>
-      <c r="J660" s="6">
+      <c r="J660">
         <f t="shared" ca="1" si="161"/>
         <v>1</v>
       </c>
-      <c r="K660" s="6" t="str">
+      <c r="K660" t="str">
         <f t="shared" ca="1" si="162"/>
         <v/>
       </c>
-      <c r="L660" s="6">
+      <c r="L660">
         <f t="shared" ca="1" si="163"/>
         <v>1</v>
       </c>
-      <c r="M660" s="6">
+      <c r="M660">
         <f t="shared" ca="1" si="164"/>
         <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A661" s="7">
+      <c r="A661" s="1">
         <f t="shared" si="98"/>
         <v>45891</v>
       </c>
@@ -32957,41 +32945,41 @@
       <c r="E661">
         <v>1</v>
       </c>
-      <c r="F661" s="6">
+      <c r="F661">
         <f ca="1">VLOOKUP(A661+3+7, BB!$A:$C,2, 0) - VLOOKUP(A661+3, BB!$A:$C,2, 0)</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="G661" s="6">
+      <c r="G661">
         <f ca="1">VLOOKUP(A661+3+7, BB!$A:$C,3, 0) - VLOOKUP(A661+3, BB!$A:$C,3, 0)</f>
         <v>-4.6700000000000408E-2</v>
       </c>
-      <c r="H661" s="6">
+      <c r="H661">
         <f t="shared" ca="1" si="159"/>
         <v>-1</v>
       </c>
-      <c r="I661" s="6">
+      <c r="I661">
         <f t="shared" ca="1" si="160"/>
         <v>1</v>
       </c>
-      <c r="J661" s="6" t="str">
+      <c r="J661" t="str">
         <f t="shared" ca="1" si="161"/>
         <v/>
       </c>
-      <c r="K661" s="6" t="str">
+      <c r="K661" t="str">
         <f t="shared" ca="1" si="162"/>
         <v/>
       </c>
-      <c r="L661" s="6">
+      <c r="L661">
         <f t="shared" ca="1" si="163"/>
         <v>0</v>
       </c>
-      <c r="M661" s="6">
+      <c r="M661">
         <f t="shared" ca="1" si="164"/>
         <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A662" s="7">
+      <c r="A662" s="1">
         <f t="shared" si="98"/>
         <v>45898</v>
       </c>
@@ -33007,41 +32995,41 @@
       <c r="E662">
         <v>1</v>
       </c>
-      <c r="F662" s="6">
+      <c r="F662">
         <f ca="1">VLOOKUP(A662+3+7, BB!$A:$C,2, 0) - VLOOKUP(A662+3, BB!$A:$C,2, 0)</f>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="G662" s="6">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G662">
         <f ca="1">VLOOKUP(A662+3+7, BB!$A:$C,3, 0) - VLOOKUP(A662+3, BB!$A:$C,3, 0)</f>
-        <v>-0.15419999999999945</v>
-      </c>
-      <c r="H662" s="6">
+        <v>-0.1886000000000001</v>
+      </c>
+      <c r="H662">
         <f t="shared" ca="1" si="159"/>
         <v>1</v>
       </c>
-      <c r="I662" s="6">
+      <c r="I662">
         <f t="shared" ca="1" si="160"/>
         <v>1</v>
       </c>
-      <c r="J662" s="6">
+      <c r="J662">
         <f t="shared" ca="1" si="161"/>
         <v>1</v>
       </c>
-      <c r="K662" s="6" t="str">
+      <c r="K662" t="str">
         <f t="shared" ca="1" si="162"/>
         <v/>
       </c>
-      <c r="L662" s="6">
+      <c r="L662">
         <f t="shared" ca="1" si="163"/>
         <v>0</v>
       </c>
-      <c r="M662" s="6">
+      <c r="M662">
         <f t="shared" ca="1" si="164"/>
         <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A663" s="7">
+      <c r="A663" s="1">
         <f t="shared" si="98"/>
         <v>45905</v>
       </c>
@@ -33055,13 +33043,258 @@
         <v>-1</v>
       </c>
       <c r="E663">
-        <v>1</v>
-      </c>
-      <c r="F663" s="6"/>
-      <c r="G663" s="6"/>
+        <v>-1</v>
+      </c>
+      <c r="F663">
+        <f ca="1">VLOOKUP(A663+3+7, BB!$A:$C,2, 0) - VLOOKUP(A663+3, BB!$A:$C,2, 0)</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="G663">
+        <f ca="1">VLOOKUP(A663+3+7, BB!$A:$C,3, 0) - VLOOKUP(A663+3, BB!$A:$C,3, 0)</f>
+        <v>-2.2999999999999687E-3</v>
+      </c>
+      <c r="H663">
+        <f t="shared" ref="H663:H667" ca="1" si="165">IF(F663&gt;0, -1, IF(F663&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I663">
+        <f t="shared" ref="I663:I667" ca="1" si="166">IF(G663&gt;0, -1, IF(G663&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J663">
+        <f t="shared" ref="J663:J667" ca="1" si="167">IF(OR(H663=0, B663=0), "", IF(OR(AND(B663=1,H663=1), AND(B663=-1,H663=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="K663">
+        <f t="shared" ref="K663:K667" ca="1" si="168">IF(OR(H663=0, C663=0), "", IF(OR(AND(C663=1,H663=1), AND(C663=-1,H663=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="L663">
+        <f t="shared" ref="L663:L667" ca="1" si="169">IF(OR(I663=0, D663=0), "", IF(OR(AND(D663=1,I663=1), AND(D663=-1,I663=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="M663">
+        <f t="shared" ref="M663:M667" ca="1" si="170">IF(OR(I663=0, E663=0), "", IF(OR(AND(E663=1,I663=1), AND(E663=-1,I663=-1)), 1, 0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="664" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A664" s="7"/>
+      <c r="A664" s="1">
+        <f t="shared" si="98"/>
+        <v>45912</v>
+      </c>
+      <c r="B664">
+        <v>-1</v>
+      </c>
+      <c r="C664">
+        <v>-1</v>
+      </c>
+      <c r="D664">
+        <v>-1</v>
+      </c>
+      <c r="E664">
+        <v>-1</v>
+      </c>
+      <c r="F664">
+        <f ca="1">VLOOKUP(A664+3+7, BB!$A:$C,2, 0) - VLOOKUP(A664+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G664">
+        <f ca="1">VLOOKUP(A664+3+7, BB!$A:$C,3, 0) - VLOOKUP(A664+3, BB!$A:$C,3, 0)</f>
+        <v>0.10920000000000041</v>
+      </c>
+      <c r="H664">
+        <f t="shared" ca="1" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="I664">
+        <f t="shared" ca="1" si="166"/>
+        <v>-1</v>
+      </c>
+      <c r="J664">
+        <f t="shared" ca="1" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="K664">
+        <f t="shared" ca="1" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="L664">
+        <f t="shared" ca="1" si="169"/>
+        <v>1</v>
+      </c>
+      <c r="M664">
+        <f t="shared" ca="1" si="170"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <f t="shared" si="98"/>
+        <v>45919</v>
+      </c>
+      <c r="B665">
+        <v>-1</v>
+      </c>
+      <c r="C665">
+        <v>-1</v>
+      </c>
+      <c r="D665">
+        <v>-1</v>
+      </c>
+      <c r="E665">
+        <v>-1</v>
+      </c>
+      <c r="F665">
+        <f ca="1">VLOOKUP(A665+3+7, BB!$A:$C,2, 0) - VLOOKUP(A665+3, BB!$A:$C,2, 0)</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="G665">
+        <f ca="1">VLOOKUP(A665+3+7, BB!$A:$C,3, 0) - VLOOKUP(A665+3, BB!$A:$C,3, 0)</f>
+        <v>-8.0000000000000071E-3</v>
+      </c>
+      <c r="H665">
+        <f t="shared" ca="1" si="165"/>
+        <v>-1</v>
+      </c>
+      <c r="I665">
+        <f t="shared" ca="1" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="J665">
+        <f ca="1">IF(OR(H665=0, B665=0), "", IF(OR(AND(B665=1,H665=1), AND(B665=-1,H665=-1)), 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="K665">
+        <f t="shared" ca="1" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="L665">
+        <f t="shared" ca="1" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="M665">
+        <f t="shared" ca="1" si="170"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <f t="shared" si="98"/>
+        <v>45926</v>
+      </c>
+      <c r="B666">
+        <v>-1</v>
+      </c>
+      <c r="C666">
+        <v>-1</v>
+      </c>
+      <c r="D666">
+        <v>-1</v>
+      </c>
+      <c r="E666">
+        <v>-1</v>
+      </c>
+      <c r="F666">
+        <f ca="1">VLOOKUP(A666+3+7, BB!$A:$C,2, 0) - VLOOKUP(A666+3, BB!$A:$C,2, 0)</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="G666">
+        <f ca="1">VLOOKUP(A666+3+7, BB!$A:$C,3, 0) - VLOOKUP(A666+3, BB!$A:$C,3, 0)</f>
+        <v>1.330000000000009E-2</v>
+      </c>
+      <c r="H666">
+        <f t="shared" ca="1" si="165"/>
+        <v>1</v>
+      </c>
+      <c r="I666">
+        <f t="shared" ca="1" si="166"/>
+        <v>-1</v>
+      </c>
+      <c r="J666">
+        <f t="shared" ca="1" si="167"/>
+        <v>0</v>
+      </c>
+      <c r="K666">
+        <f t="shared" ca="1" si="168"/>
+        <v>0</v>
+      </c>
+      <c r="L666">
+        <f t="shared" ca="1" si="169"/>
+        <v>1</v>
+      </c>
+      <c r="M666">
+        <f t="shared" ca="1" si="170"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <f t="shared" si="98"/>
+        <v>45933</v>
+      </c>
+      <c r="B667">
+        <v>-1</v>
+      </c>
+      <c r="C667">
+        <v>-1</v>
+      </c>
+      <c r="D667">
+        <v>-1</v>
+      </c>
+      <c r="E667">
+        <v>-1</v>
+      </c>
+      <c r="F667">
+        <f ca="1">VLOOKUP(A667+3+7, BB!$A:$C,2, 0) - VLOOKUP(A667+3, BB!$A:$C,2, 0)</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="G667">
+        <f ca="1">VLOOKUP(A667+3+7, BB!$A:$C,3, 0) - VLOOKUP(A667+3, BB!$A:$C,3, 0)</f>
+        <v>-9.1000000000000192E-2</v>
+      </c>
+      <c r="H667">
+        <f t="shared" ca="1" si="165"/>
+        <v>-1</v>
+      </c>
+      <c r="I667">
+        <f t="shared" ca="1" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="J667">
+        <f t="shared" ca="1" si="167"/>
+        <v>1</v>
+      </c>
+      <c r="K667">
+        <f t="shared" ca="1" si="168"/>
+        <v>1</v>
+      </c>
+      <c r="L667">
+        <f t="shared" ca="1" si="169"/>
+        <v>0</v>
+      </c>
+      <c r="M667">
+        <f t="shared" ca="1" si="170"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <f t="shared" si="98"/>
+        <v>45940</v>
+      </c>
+      <c r="B668">
+        <v>-1</v>
+      </c>
+      <c r="C668">
+        <v>-1</v>
+      </c>
+      <c r="D668">
+        <v>-1</v>
+      </c>
+      <c r="E668">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -33072,10 +33305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="I150" sqref="I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -40502,41 +40735,41 @@
       <c r="E152">
         <v>-1</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152">
         <f>VLOOKUP(EOMONTH(A152,1), BB!A:C, 2, 1)-VLOOKUP(A152, BB!A:C, 2, 1)</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G152">
         <f>VLOOKUP(EOMONTH(A152,1), BB!A:C, 3, 1)-VLOOKUP(A152, BB!A:C, 3, 1)</f>
         <v>-0.14559999999999995</v>
       </c>
-      <c r="H152" s="6">
+      <c r="H152">
         <f t="shared" ref="H152" si="82">IF(F152&gt;0, -1, IF(F152&lt;0, 1, 0))</f>
         <v>-1</v>
       </c>
-      <c r="I152" s="6">
+      <c r="I152">
         <f t="shared" ref="I152" si="83">IF(G152&gt;0, -1, IF(G152&lt;0, 1, 0))</f>
         <v>1</v>
       </c>
-      <c r="J152" s="6">
+      <c r="J152">
         <f t="shared" ref="J152" si="84">IF(B152=H152,1,0)</f>
         <v>0</v>
       </c>
-      <c r="K152" s="6">
+      <c r="K152">
         <f t="shared" ref="K152" si="85">IF(C152=I152,1,0)</f>
         <v>1</v>
       </c>
-      <c r="L152" s="6">
+      <c r="L152">
         <f t="shared" ref="L152" si="86">IF(D152=H152,1,0)</f>
         <v>0</v>
       </c>
-      <c r="M152" s="6">
+      <c r="M152">
         <f t="shared" ref="M152" si="87">IF(E152=I152,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A153" s="7">
+      <c r="A153" s="1">
         <v>45900</v>
       </c>
       <c r="B153">
@@ -40549,6 +40782,87 @@
         <v>0</v>
       </c>
       <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <f>VLOOKUP(EOMONTH(A153,1), BB!A:C, 2, 1)-VLOOKUP(A153, BB!A:C, 2, 1)</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="G153">
+        <f>VLOOKUP(EOMONTH(A153,1), BB!A:C, 3, 1)-VLOOKUP(A153, BB!A:C, 3, 1)</f>
+        <v>-7.8100000000000058E-2</v>
+      </c>
+      <c r="H153">
+        <f t="shared" ref="H153" si="88">IF(F153&gt;0, -1, IF(F153&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <f t="shared" ref="I153" si="89">IF(G153&gt;0, -1, IF(G153&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" ref="J153" si="90">IF(B153=H153,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <f t="shared" ref="K153" si="91">IF(C153=I153,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <f t="shared" ref="L153" si="92">IF(D153=H153,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <f t="shared" ref="M153" si="93">IF(E153=I153,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B154">
+        <v>-1</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154">
+        <v>-1</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <f>VLOOKUP(EOMONTH(A154,1), BB!A:C, 2, 1)-VLOOKUP(A154, BB!A:C, 2, 1)</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="G154">
+        <f>VLOOKUP(EOMONTH(A154,1), BB!A:C, 3, 1)-VLOOKUP(A154, BB!A:C, 3, 1)</f>
+        <v>-8.9299999999999713E-2</v>
+      </c>
+      <c r="H154">
+        <f t="shared" ref="H154" si="94">IF(F154&gt;0, -1, IF(F154&lt;0, 1, 0))</f>
+        <v>-1</v>
+      </c>
+      <c r="I154">
+        <f t="shared" ref="I154" si="95">IF(G154&gt;0, -1, IF(G154&lt;0, 1, 0))</f>
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f t="shared" ref="J154" si="96">IF(B154=H154,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <f t="shared" ref="K154" si="97">IF(C154=I154,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <f t="shared" ref="L154" si="98">IF(D154=H154,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <f t="shared" ref="M154" si="99">IF(E154=I154,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -40561,10 +40875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3310"/>
+  <dimension ref="A1:C3335"/>
   <sheetViews>
-    <sheetView topLeftCell="A3271" workbookViewId="0">
-      <selection activeCell="C3310" sqref="C3310"/>
+    <sheetView topLeftCell="A3308" workbookViewId="0">
+      <selection activeCell="B3335" sqref="B3335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -76746,245 +77060,520 @@
       </c>
     </row>
     <row r="3289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3289" s="10">
+      <c r="A3289" s="5">
         <v>45877</v>
       </c>
-      <c r="B3289" s="8">
+      <c r="B3289" s="2">
         <v>0.78</v>
       </c>
-      <c r="C3289" s="8">
+      <c r="C3289" s="2">
         <v>4.2828999999999997</v>
       </c>
     </row>
     <row r="3290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3290" s="10">
+      <c r="A3290" s="5">
         <v>45880</v>
       </c>
-      <c r="B3290" s="8">
+      <c r="B3290" s="2">
         <v>0.78</v>
       </c>
-      <c r="C3290" s="8">
+      <c r="C3290" s="2">
         <v>4.2849000000000004</v>
       </c>
     </row>
     <row r="3291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3291" s="10">
+      <c r="A3291" s="5">
         <v>45881</v>
       </c>
-      <c r="B3291" s="8">
+      <c r="B3291" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3291" s="8">
+      <c r="C3291" s="2">
         <v>4.2888000000000002</v>
       </c>
     </row>
     <row r="3292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3292" s="10">
+      <c r="A3292" s="5">
         <v>45882</v>
       </c>
-      <c r="B3292" s="8">
+      <c r="B3292" s="2">
         <v>0.76</v>
       </c>
-      <c r="C3292" s="8">
+      <c r="C3292" s="2">
         <v>4.2325999999999997</v>
       </c>
     </row>
     <row r="3293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3293" s="10">
+      <c r="A3293" s="5">
         <v>45883</v>
       </c>
-      <c r="B3293" s="8">
+      <c r="B3293" s="2">
         <v>0.75</v>
       </c>
-      <c r="C3293" s="8">
+      <c r="C3293" s="2">
         <v>4.2849000000000004</v>
       </c>
     </row>
     <row r="3294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3294" s="10">
+      <c r="A3294" s="5">
         <v>45884</v>
       </c>
-      <c r="B3294" s="8">
+      <c r="B3294" s="2">
         <v>0.73</v>
       </c>
-      <c r="C3294" s="8">
+      <c r="C3294" s="2">
         <v>4.3159999999999998</v>
       </c>
     </row>
     <row r="3295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3295" s="10">
+      <c r="A3295" s="5">
         <v>45887</v>
       </c>
-      <c r="B3295" s="8">
+      <c r="B3295" s="2">
         <v>0.73</v>
       </c>
-      <c r="C3295" s="8">
+      <c r="C3295" s="2">
         <v>4.3334999999999999</v>
       </c>
     </row>
     <row r="3296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3296" s="10">
+      <c r="A3296" s="5">
         <v>45888</v>
       </c>
-      <c r="B3296" s="8">
+      <c r="B3296" s="2">
         <v>0.75</v>
       </c>
-      <c r="C3296" s="8">
+      <c r="C3296" s="2">
         <v>4.3061999999999996</v>
       </c>
     </row>
     <row r="3297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3297" s="10">
+      <c r="A3297" s="5">
         <v>45889</v>
       </c>
-      <c r="B3297" s="8">
+      <c r="B3297" s="2">
         <v>0.76</v>
       </c>
-      <c r="C3297" s="8">
+      <c r="C3297" s="2">
         <v>4.2907000000000002</v>
       </c>
     </row>
     <row r="3298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3298" s="10">
+      <c r="A3298" s="5">
         <v>45890</v>
       </c>
-      <c r="B3298" s="8">
+      <c r="B3298" s="2">
         <v>0.76</v>
       </c>
-      <c r="C3298" s="8">
+      <c r="C3298" s="2">
         <v>4.3277000000000001</v>
       </c>
     </row>
     <row r="3299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3299" s="10">
+      <c r="A3299" s="5">
         <v>45891</v>
       </c>
-      <c r="B3299" s="8">
+      <c r="B3299" s="2">
         <v>0.75</v>
       </c>
-      <c r="C3299" s="8">
+      <c r="C3299" s="2">
         <v>4.2537000000000003</v>
       </c>
     </row>
     <row r="3300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3300" s="10">
+      <c r="A3300" s="5">
         <v>45894</v>
       </c>
-      <c r="B3300" s="8">
+      <c r="B3300" s="2">
         <v>0.75</v>
       </c>
-      <c r="C3300" s="8">
+      <c r="C3300" s="2">
         <v>4.2751000000000001</v>
       </c>
     </row>
     <row r="3301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3301" s="10">
+      <c r="A3301" s="5">
         <v>45895</v>
       </c>
-      <c r="B3301" s="8">
+      <c r="B3301" s="2">
         <v>0.76</v>
       </c>
-      <c r="C3301" s="8">
+      <c r="C3301" s="2">
         <v>4.2614999999999998</v>
       </c>
     </row>
     <row r="3302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3302" s="10">
+      <c r="A3302" s="5">
         <v>45896</v>
       </c>
-      <c r="B3302" s="8">
+      <c r="B3302" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3302" s="8">
+      <c r="C3302" s="2">
         <v>4.2343000000000002</v>
       </c>
     </row>
     <row r="3303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3303" s="10">
+      <c r="A3303" s="5">
         <v>45897</v>
       </c>
-      <c r="B3303" s="8">
+      <c r="B3303" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3303" s="8">
+      <c r="C3303" s="2">
         <v>4.2032999999999996</v>
       </c>
     </row>
     <row r="3304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3304" s="10">
+      <c r="A3304" s="5">
         <v>45898</v>
       </c>
-      <c r="B3304" s="8">
+      <c r="B3304" s="2">
         <v>0.79</v>
       </c>
-      <c r="C3304" s="8">
+      <c r="C3304" s="2">
         <v>4.2283999999999997</v>
       </c>
     </row>
     <row r="3305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3305" s="10">
+      <c r="A3305" s="5">
         <v>45901</v>
       </c>
-      <c r="B3305" s="8">
+      <c r="B3305" s="2">
         <v>0.79</v>
       </c>
-      <c r="C3305" s="8">
+      <c r="C3305" s="2">
         <v>4.2283999999999997</v>
       </c>
     </row>
     <row r="3306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3306" s="10">
+      <c r="A3306" s="5">
         <v>45902</v>
       </c>
-      <c r="B3306" s="8">
+      <c r="B3306" s="2">
         <v>0.8</v>
       </c>
-      <c r="C3306" s="8">
+      <c r="C3306" s="2">
         <v>4.2614000000000001</v>
       </c>
     </row>
     <row r="3307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3307" s="10">
+      <c r="A3307" s="5">
         <v>45903</v>
       </c>
-      <c r="B3307" s="8">
+      <c r="B3307" s="2">
         <v>0.79</v>
       </c>
-      <c r="C3307" s="8">
+      <c r="C3307" s="2">
         <v>4.2168000000000001</v>
       </c>
     </row>
     <row r="3308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3308" s="10">
+      <c r="A3308" s="5">
         <v>45904</v>
       </c>
-      <c r="B3308" s="8">
+      <c r="B3308" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3308" s="8">
+      <c r="C3308" s="2">
         <v>4.1607000000000003</v>
       </c>
     </row>
     <row r="3309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3309" s="10">
+      <c r="A3309" s="5">
         <v>45905</v>
       </c>
-      <c r="B3309" s="8">
+      <c r="B3309" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3309" s="8">
+      <c r="C3309" s="2">
         <v>4.0742000000000003</v>
       </c>
     </row>
     <row r="3310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3310" s="9">
+      <c r="A3310" s="5">
         <v>45908</v>
       </c>
-      <c r="B3310" s="8">
+      <c r="B3310" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3310" s="2">
+        <v>4.0397999999999996</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3311" s="5">
+        <v>45909</v>
+      </c>
+      <c r="B3311" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="C3311" s="2">
+        <v>4.0875000000000004</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3312" s="5">
+        <v>45910</v>
+      </c>
+      <c r="B3312" s="2">
         <v>0.77</v>
       </c>
-      <c r="C3310" s="8">
-        <v>4.0742000000000003</v>
+      <c r="C3312" s="2">
+        <v>4.0453999999999999</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3313" s="5">
+        <v>45911</v>
+      </c>
+      <c r="B3313" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3313" s="2">
+        <v>4.0206</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3314" s="5">
+        <v>45912</v>
+      </c>
+      <c r="B3314" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3314" s="2">
+        <v>4.0643000000000002</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3315" s="5">
+        <v>45915</v>
+      </c>
+      <c r="B3315" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3315" s="2">
+        <v>4.0374999999999996</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3316" s="5">
+        <v>45916</v>
+      </c>
+      <c r="B3316" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3316" s="2">
+        <v>4.0278999999999998</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3317" s="5">
+        <v>45917</v>
+      </c>
+      <c r="B3317" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3317" s="2">
+        <v>4.0872000000000002</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3318" s="5">
+        <v>45918</v>
+      </c>
+      <c r="B3318" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C3318" s="2">
+        <v>4.1044</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3319" s="5">
+        <v>45919</v>
+      </c>
+      <c r="B3319" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C3319" s="2">
+        <v>4.1273999999999997</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3320" s="5">
+        <v>45922</v>
+      </c>
+      <c r="B3320" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C3320" s="2">
+        <v>4.1467000000000001</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3321" s="5">
+        <v>45923</v>
+      </c>
+      <c r="B3321" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3321" s="2">
+        <v>4.1060999999999996</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3322" s="5">
+        <v>45924</v>
+      </c>
+      <c r="B3322" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3322" s="2">
+        <v>4.1466000000000003</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3323" s="5">
+        <v>45925</v>
+      </c>
+      <c r="B3323" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3323" s="2">
+        <v>4.1698000000000004</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3324" s="5">
+        <v>45926</v>
+      </c>
+      <c r="B3324" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3324" s="2">
+        <v>4.1755000000000004</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3325" s="5">
+        <v>45929</v>
+      </c>
+      <c r="B3325" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3325" s="2">
+        <v>4.1387</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3326" s="5">
+        <v>45930</v>
+      </c>
+      <c r="B3326" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3326" s="2">
+        <v>4.1502999999999997</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3327" s="5">
+        <v>45931</v>
+      </c>
+      <c r="B3327" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C3327" s="2">
+        <v>4.0980999999999996</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3328" s="5">
+        <v>45932</v>
+      </c>
+      <c r="B3328" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3328" s="2">
+        <v>4.0827</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3329" s="5">
+        <v>45933</v>
+      </c>
+      <c r="B3329" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3329" s="2">
+        <v>4.1192000000000002</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3330" s="5">
+        <v>45936</v>
+      </c>
+      <c r="B3330" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="C3330" s="2">
+        <v>4.1520000000000001</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3331" s="5">
+        <v>45937</v>
+      </c>
+      <c r="B3331" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3331" s="2">
+        <v>4.1230000000000002</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3332" s="5">
+        <v>45938</v>
+      </c>
+      <c r="B3332" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="C3332" s="2">
+        <v>4.1170999999999998</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3333" s="5">
+        <v>45939</v>
+      </c>
+      <c r="B3333" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="C3333" s="2">
+        <v>4.1383999999999999</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3334" s="5">
+        <v>45940</v>
+      </c>
+      <c r="B3334" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3334" s="2">
+        <v>4.0321999999999996</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3335" s="6">
+        <v>45943</v>
+      </c>
+      <c r="B3335" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="C3335" s="2">
+        <v>4.0609999999999999</v>
       </c>
     </row>
   </sheetData>
